--- a/data/hotels_by_city/Dallas/Dallas_shard_497.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_497.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="963">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>dmr5658</t>
+  </si>
+  <si>
     <t>06/14/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>A+++.   Staff made our stay great.  Very pet friendly.  We were visiting Texas for the birth of our grand nephew and we had our small dog with us.  This was his first stay in a hotel and he was not happy having to stay in room by himself.   Staff knew our situation and made sure that our neighbors knew our situation and thankfully they understood our situation.  More</t>
   </si>
   <si>
+    <t>tom m</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r571397254-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -219,6 +225,9 @@
     <t>we were attending dog show in Azel Texas and have stayed at La Quinta before it is now our preferred hotel the staff at this hotel very friendly and helpful the rooms were well looked after and well equipped the breakfast provided was excellent if I had any concerns coffee was a little on the weak side other than that no complaints will return next year.More</t>
   </si>
   <si>
+    <t>981cecilh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r587089042-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -237,6 +246,9 @@
     <t>Very friendly always willing to satisfy customer. Very clean inside and outside. Quiet and priced right. Pool was very clean and maintain. Location is a plus for being close to activity's in the local area. We intend to return in Nov.More</t>
   </si>
   <si>
+    <t>AngusCocp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r585684353-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -261,6 +273,9 @@
     <t>Great night including eating at Sweetie Pies.  Desk suggested it as a place to dine nearby.  Will be back to hotel and eatery.  Definitely on our future bucket list, as we travel 287 frequently.  Thank you!More</t>
   </si>
   <si>
+    <t>Jon E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r584692190-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -288,6 +303,9 @@
     <t>Was an ok place except for the above mentioned items, neither was critical to a good stay, but we paid for a fully functioning room.  abcdefghijklmnopqrst 123456789mnopq tmnccoppe987654321 mpolkjiuytredMore</t>
   </si>
   <si>
+    <t>105marcil</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r580172920-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -309,6 +327,9 @@
     <t>More</t>
   </si>
   <si>
+    <t>travelingpuppymom22</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r575930364-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -336,6 +357,9 @@
     <t>I was traveling recently and due to storms stopped by the hotel, which set-off the highway behind a shopping center, with no tenants! I was greeted by the General Manager (Karen) who was dusting the lobby at 8:30 PM.  Amber checked me in and made sure I was taken care of, upgraded to a suite for myself and my puppies.  I slept so well, that I asked Lottie the next morning what kind of bed mattress, to my surprise, Karen the GM came around the corner at 7:00AM and told me! I asked Karen if she ever left and she said, I worked audit.  To the owner of this Hotel - Karen needs a vacation!More</t>
   </si>
   <si>
+    <t>PTinBigD</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r575080015-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -360,6 +384,9 @@
     <t>A neglected property; desk staff said it was about to be completely updated; I'm from Missouri regarding this update plan. Staff friendly, food good and presented well; property just beat up and neglected.More</t>
   </si>
   <si>
+    <t>illy918</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r572676347-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -384,6 +411,9 @@
     <t>This hotel is located about equally between texas motor speedway and the stockyards. We stayed 3 nights and really enjoyed ourselves.  We were right off the elevator but didn't hear it moving.  It was really nice. More</t>
   </si>
   <si>
+    <t>dreamingman60</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r569469164-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -411,6 +441,9 @@
     <t>Usually a good place to stay. Things were not going well for them today. It started poorly when the breakfast lady didn't show (I'm assuming since the front desk lady was doing the food too), then to get ready to get in the shower only to discover there is no hot water! I'm sure it takes alot to run a hotel, and things happen, but not a good start to your day when these things are what greets you first thing in the morning. Maybe next time will be better.More</t>
   </si>
   <si>
+    <t>Troy M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r550034310-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -438,6 +471,9 @@
     <t>If you are looking for a good bad and shower this is just fine. But if you are needing wifi, good lighting, and a bath, keep moving on. No tup stopper for bath, lights burned out not only in the bath room, but the hotel sign as well. Not the greatest location, but once you find it it's ok. Staff is friendly, but doesn't follow through when requesting issues. When talking to them about their issues, they blame other things like the city "wifi." Yes I know the city wifi has nothing to do with the hotels wifi, but that was their reasoning. If you do have several issues, the manager will tell you sorry, which is nice.More</t>
   </si>
   <si>
+    <t>E4234VOantoniot</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r549696727-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -462,6 +498,9 @@
     <t>Great service even better room. All around outstanding experience. Definitely would stay again. The price and the room were both pleasing. The breakfast is pretty good as well. It was a pretty random location considering I was just passing through, but still a great place to get a good nights sleep in a comfortable and clean place with a low price. Thank you La Quinta!More</t>
   </si>
   <si>
+    <t>kaymI8234FH</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r543574063-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -489,6 +528,9 @@
     <t>Great place to stay on our way to Houston. The beds are wonderful and rooms are very quiet. We recommend this hotel to our daughter and her husband on there way to Houston also for Thanksgiving.  We will definitely stay again!!!More</t>
   </si>
   <si>
+    <t>583tanyan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r542414630-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -510,6 +552,9 @@
     <t>During my I found that the gym equipment has been broken for at least 6 months because it was broken the last time I stayed there and no one has repaired it also dining chair was broken and all they did was push the leg back in and put it right back out on the floor and which does not seem safe to me. The television in my room could only be controlled from one specific location in the room and when we reported to the downstairs they simply told me we have to stand right in front of the TV that doesn't seem right also in my bathroom there was a dirty sponge and lint left all over the counter top I'm not happy with this location and do not think I will be staying at this particular Hotel againMore</t>
   </si>
   <si>
+    <t>shantillyd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r541941996-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -534,6 +579,9 @@
     <t>We stopped here to spend the night on our road trip to Florida. Everyone was so friendly and helpful and they were wonderful and our dog staying with us.The room was extremely nice and clean. The bathroom was large and they had a great shower and a good quick breakfast to get us on the road.We will always look for la Quinta first for any future trips!More</t>
   </si>
   <si>
+    <t>Alex M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r541672846-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -552,6 +600,9 @@
     <t>We were in Decatur to attend an event nearby and stayed for one night. The room and the bathroom were very clean and the beds were comfortable. The breakfast was a typical hotel breakfast i.e. pretty bad but after many hotel stays I have no expectations there. Main gripe was that the lighting in the room was very poor also the TV remote barely worked so changing channels was well nigh impossible. We travel with a dog and appreciate the dog friendly policy. The price paid was good value. If ever back in this area I would stay here again.More</t>
   </si>
   <si>
+    <t>jefferia2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r539884187-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -579,6 +630,9 @@
     <t>Good if you just need to sleep and get back on the road. The sheets were clean but there was a burn hole in the comforter. The breakfast was OK, but the staff in that area was disengaged.The furnishings in disrepair but functional.More</t>
   </si>
   <si>
+    <t>547claytong</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r536082204-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -603,6 +657,9 @@
     <t>Very nice hotel! Clean and comfortable! We were in town for a wedding, so we only stayed one night, but it would definitely be a place to stay several nights if we lived further away! Staff was helpful and courteous! It is also close and convenient to area stores, which is a plus when we stay somewhere for an extended period of time, as we don't like to eat out a lot, so we could easily get groceries and make food in our room.More</t>
   </si>
   <si>
+    <t>Sherry M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r533244041-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -630,6 +687,9 @@
     <t>I was in Decatur Texas to attend a two night wedding event.   This hotel was a great choice for the Wedding party and friends from all over the nation to meet-up.  The hotel staff was amazing - they were happy we were there and it showed. Every staff member from Hotel Concierge, Front Desk, Breakfast area, to Room Attendants were providing exemplary customer service. No wonder it has Tripadvisor's Certificate of Excellence status!  Great Breakfast, clean comfortable rooms, 24 hour coffee bar with professional staff.More</t>
   </si>
   <si>
+    <t>Bdaniel1991</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r530827467-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -654,6 +714,9 @@
     <t>Rooms are newly remodeled and very clean, but the front desk staff and general manager are the best I have ever encountered at any business. They went out of there way to take care of my familys needs while we were there. I can’t say enough on how great it was to deal with all of them, from the moment I checked in until I checked out.My family and I was always greeted with a smile and a friendly comment. I want to personally thank all of these lady’s for making each day a better one,just by being part of my trip.More</t>
   </si>
   <si>
+    <t>DanaMonte B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r528512625-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -681,6 +744,9 @@
     <t>Staff was friendly and helpful. Room was clean and basic. Hated that the coffee pot and coffee for the room were in the bathroom. I used a discount for this hotel so for the price and one night it was fine. More</t>
   </si>
   <si>
+    <t>Javier R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r526449142-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -705,6 +771,9 @@
     <t>It's amazing what a smile and a friendly person will do for a business... very professional staff, Shari at the front desk just goes above and beyond to make sure your stay is as good as it can be. Service like that keeps you coming back.. Thank You!More</t>
   </si>
   <si>
+    <t>thetexasstarr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r513540853-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -732,6 +801,9 @@
     <t>hotel under construction, but clean and friendly, breakfast a bonus, wish they had a hot tub had been a long day and air conditioner was a little out dated and did not cool well, but overall A+ for quick stop and sleep before the rest of the 10 hour drive homeMore</t>
   </si>
   <si>
+    <t>ttommymt</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r513163466-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -753,6 +825,9 @@
     <t>Our stay was perfect in Ever way... Hostess was extremely polite and curtious and made checking in as fast and simple as possible. We love our stays at La Quinta. The pool was clean as was the outside areas so taking our dogs outside was a pleasure....More</t>
   </si>
   <si>
+    <t>curlydolls</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r510373316-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -777,6 +852,9 @@
     <t>We have stayed at this LQ numerous times. Rooms are large and clean and service is always great. We stay almost exclusively at LQ because they are great about accepting our cats. Great stay, convenient locale. We love staying here when visiting ft worth as we can take off sunday night and beat the monday am stupid traffic. We stay in the two room suite and it is HUGE. this time, we got the one right behind the elevator, but amazingly, no noiseMore</t>
   </si>
   <si>
+    <t>judymX4149NF</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r492915009-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -804,6 +882,9 @@
     <t>We had a fantastic stay as the hotel was very clean and right on the highway that we were traveling.  The hotel was close to Sweetie Pie's Ribeye which was our destination restaurant for dinner and the breakfast at the hotel was very good.More</t>
   </si>
   <si>
+    <t>coachhanna</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r493437468-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -822,6 +903,9 @@
     <t>I have been very pleased with my stay at LaQuinta Inn. My dog is welcome, so I will always go back to LaQuinta. The hotel in Decatur, TX was especially great because of the young lady who checked me in. I was so fried after my experience on the Dallas turnpike! She was awesome with helping me calm down so that I could enjoy my stay. Very helpful with suggestions on where to eat and directions to these places. I definitely will return!More</t>
   </si>
   <si>
+    <t>Judith L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r481728343-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -846,6 +930,9 @@
     <t>Our only complaint is the sofa beds!! The beds our not comfortable at all they need a topper of some kind!!! The springs come right threw the fabric. !! La Quinta Inn is famous for there beds!! The sofa beds need help!!More</t>
   </si>
   <si>
+    <t>lsland</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r479468218-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -858,6 +945,9 @@
     <t>GM6153, General Manager at La Quinta Inn &amp; Suites Decatur, responded to this reviewResponded June 22, 2017</t>
   </si>
   <si>
+    <t>G L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r478936893-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -876,6 +966,9 @@
     <t>My assistant booked this for me at the last minute after unsuccessfully attempting to locate a Marriott brand nearby.   Immediately upon arriving I noticed a man standing near the entrance in a dimly lit area drinking  beer.  Thinking to myself, I was wondering why if he was a guest he wasn't in his room drinking his beer.  I suppose he might have been smoking before I arrived.  The front desk check in went smoothly and the clerk was very friendly.  My room was clean and the bed was comfortable.  The sink in the bathroom was very slow draining.  No other notable negatives regarding my stay.  I did not eat the breakfast as I was in a hurry to get on the road.  In general, the property was clean but wear and tear since its last update was apparent.   More</t>
   </si>
   <si>
+    <t>Jerry M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r401574544-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -894,6 +987,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>sandrawE3255OW</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r401574780-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -909,6 +1005,9 @@
     <t>Stephanie the night clerk greeted me by name. Granted I called several hours before to let her know we would be in later than expected. It was still a nice touch, the first of many. Every single employee was friendly and most helpful.  The breakfast offerings were excellent as expected. The room was clean &amp; pool was fantastic.  Thanks to all for a great "mini vacation".</t>
   </si>
   <si>
+    <t>john F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r396659689-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -927,6 +1026,9 @@
     <t>December 2015</t>
   </si>
   <si>
+    <t>marshaw86</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r398683436-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -942,6 +1044,9 @@
     <t>I stayed at The Decatur La Quinta while driving across Texas.  My family has stayed at La Quinta for over 25 years,  Without question, this is the worst La Quinta in the chain.  Room smelled, terrible mattress, poor lighting in the room and the HVAC vents didn't work.</t>
   </si>
   <si>
+    <t>Fran G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r385462106-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -967,6 +1072,9 @@
   </si>
   <si>
     <t>Our stay at this LQ was wonderful. The front desk was  very professional and quick.  The room clean and very nice. Nice spacious room and the beds were very comfortable. Breakfast  was very good with a good variety of.  Overall stay a 10 If we go back through TX, we would stay at this LQMore</t>
+  </si>
+  <si>
+    <t>UncleScooge01</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r383121544-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
@@ -1003,6 +1111,9 @@
 Ths LQ...Overall, I liked this LQ.   I have some good things to say, but let me explain the title of this review.Location:  This LQ is located next to an interstate and is accessed off the feeder road.  The feeder road is ONE WAY; so, if you miss the entrance (easy to do), you have to go to the next overpass, go under the overpass, drive to the next overpass, go under that overpass, and drive back ... the loop is about 2 miles.I mention this because, if you want to go out for dinner ... 2 miles; mornng paper ... 2 miles ... drugstore ... 2 miles.   There is no easy way to get to this hotel.    Since there is no free newspaper (USA Today, local, or otherwise) you have to drive to get a paper ... and that's an irritant.The Wifi is unreliable.  In the business center, it was so  S L O W that it was unusable.Now the good news, the hotel is undergoing rennovation.   The breakfast area, lobby, our ADA room are done and they all look very nice.The Brightside breakfast is very good.   Eggs, Sausage, various breads, juice ... AND BEST OF ALL, FRESH COFFEE (not the hideous Nescafe (fake fresh) I see in many LQs.)The front desk people are very friendly and helpful.Our room had no issues.   TV, plumbing, clean, comfortable bed, enough outlets ... all good.Ths LQ is worth a stop.More</t>
   </si>
   <si>
+    <t>Evan R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r379804000-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1027,6 +1138,9 @@
     <t>I was driving across country for military training and decided to stop here. The manager and staff was very accommodating and friendly. My room  had clean sheets, fast wifi, flat screen tv, working ac, and a great bed.More</t>
   </si>
   <si>
+    <t>P8459TUlindas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r378505139-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1051,6 +1165,9 @@
     <t>Check in was slow due to the fact the person behind the desk had to spend time on a computer to do something for her manager rather than check me in, never mind that I am a paying customer.  The elevator was not working when I arrived, and the check in clerk laughed and said I sure hope it works because you are on the 3rd floor, the toilet continually ran, the room needed a good vacuum as there were things on the floor along the walls.  Expensive for the quality and the service received.More</t>
   </si>
   <si>
+    <t>Lena T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r373971820-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1066,6 +1183,9 @@
     <t>This place is immaculately clean. Even with construction going on you could not tell.  The ladies at the front desk are cheerful and a delight to speak with. It is pet friendly, but that does not mean a smelly room or dirty accommodations.</t>
   </si>
   <si>
+    <t>Carroll T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r373971818-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1081,6 +1201,9 @@
     <t>When I called the motel and set up a room, I talked to a guy what had just worked there 1 or 2 days….I asked him if he had a room with 2 separate bedrooms and he replied YES.  I said that was the room that I wanted and he said ok and set me up. Upon arrival, the girl stay that I have a Executive King suite, I asked if this is the room with 2 separate bedrooms, her reply: No, it has 2 king beds….I told her that I reserved the room stated above, so she said that it was already occupied.  I then said ok, and when to the room she assigned.  Upon entry to that room, I discovered that there was 1 bed (King ) sleeper sofa.  I immediately went back to the front desk and told her that there was only 1 bed and she said that it had 1 bed and a sleeper sofa ( king ).. I then asked her if she had a room with 2 BEDS…she said yes and put me in a room with 2 queens beds….We made do, but I was not happy with this situation at ALL!!!    In the room, when housekeeping changed out the towels and wash clothes, for some reason there were only 2 wash clothes left and in a room with 2 beds that would accommodate 4 persons I don’t understand this!!!, But again, we...When I called the motel and set up a room, I talked to a guy what had just worked there 1 or 2 days….I asked him if he had a room with 2 separate bedrooms and he replied YES.  I said that was the room that I wanted and he said ok and set me up. Upon arrival, the girl stay that I have a Executive King suite, I asked if this is the room with 2 separate bedrooms, her reply: No, it has 2 king beds….I told her that I reserved the room stated above, so she said that it was already occupied.  I then said ok, and when to the room she assigned.  Upon entry to that room, I discovered that there was 1 bed (King ) sleeper sofa.  I immediately went back to the front desk and told her that there was only 1 bed and she said that it had 1 bed and a sleeper sofa ( king ).. I then asked her if she had a room with 2 BEDS…she said yes and put me in a room with 2 queens beds….We made do, but I was not happy with this situation at ALL!!!    In the room, when housekeeping changed out the towels and wash clothes, for some reason there were only 2 wash clothes left and in a room with 2 beds that would accommodate 4 persons I don’t understand this!!!, But again, we made do.  Batteries in the remote for the TV went out and I went to the front desk and got those changed.  The reason I started staying at LQ, was because I stayed at the one in Arlington-North, and never had a problem, they shuttled me to and from the baseball game, always very accommodating.  I hope this information helps you with your hotel and training process of personal.More</t>
   </si>
   <si>
+    <t>Johnny D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r370582365-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1099,6 +1222,9 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>Deborah S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r358746026-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1126,6 +1252,9 @@
     <t>Overnight stay, traveling with our dog, so always look for LQ, knowing they don't charge extra. Room was large and clean, bathroom, too. Hotel is being remodeled or renovated, but only noticed because of the plastic barrier in a hallway. Only negative was being in the room next to the elevator. It hummed and vibrated the bed when it was used during the night. My suggestion would be that when you undertake a renovation, you should consider making the rooms directly adjoining the elevator, storage rooms! Breakfast was typical(if you travel a lot)fare, not great, but free! Staff was awesome! Thanks!More</t>
   </si>
   <si>
+    <t>Arlene L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r350163514-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1147,6 +1276,9 @@
     <t>We enjoy and only use LaQuinta if we travel with out dog.  Almost always we will have our dog with us.  All of the new or renovated LaQuinta's have been great.  Some do not have the best area's to walk the dog.   But the updated LaQuinta are good.  Then older not renovated La Quinta hotels we will not stay in.More</t>
   </si>
   <si>
+    <t>Anne S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r346055379-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1165,6 +1297,9 @@
     <t>very clean and neat.  easy access from 287.  the breakfast options were good. included scrambled eggs.  friendly staff.  soft towels.  good water pressure for shower, big fluffy pillows.  I always have good experience with La Quinta at any one that I have stayed at.More</t>
   </si>
   <si>
+    <t>Brandi W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r341599011-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1192,6 +1327,9 @@
     <t>Check-in was very friendly and quick.  The room was clean and spacious and the bed was very comfortable.  Considering our room was next to the elevator I was worried about noise, but the hotel was very quiet and I never heard the elevator running.  Overall very happy with the stay.More</t>
   </si>
   <si>
+    <t>Ruth R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r335876271-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1210,6 +1348,9 @@
     <t>Title says it all.  Everyone is always very friendly and accommodating.   Stephanie is awesome front desk attendant who always greets us with a smile.   Clean location also.   Have to loop around to get to it coming from the north but we're used to it now.  It's kind of set back a bit so have to keep your eye out for the sign until you get used that too.   :-)More</t>
   </si>
   <si>
+    <t>Ricky R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r325860187-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1237,6 +1378,9 @@
     <t>The LaQuinta in Decatur Texas is a great location, convenient to highways going into the DFW area. Plenty of quality restaurants close by. The hotel is spotlessly clean. The double we stayed in had two queen beds and slept very well. On top of all that, the staff is extra friendly. I will stay here everytime I am in the area.More</t>
   </si>
   <si>
+    <t>Lowery71</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r318032464-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1258,6 +1402,9 @@
     <t>We stayed here and what a nice place. We were there one night, slept like babies! They had the best mattresses, very comfortable, rooms were clean, hotel was clean, location was close to the Hwy, but it was quite. It was a nice place, thank you.More</t>
   </si>
   <si>
+    <t>Patrick C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r315265539-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1279,6 +1426,9 @@
     <t>The stay here was great.  The staff was friendly, the breakfast were excellent.  Very clean and neat.  The staff was friendly and helpful.  Dining in Decatur was eclectic and very good.  Nice place to visit for a convenince to Ft Worth..small town atmosphere.More</t>
   </si>
   <si>
+    <t>Geary W S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r315513784-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1300,6 +1450,9 @@
     <t>Sucks- did everything possible to make reservations a week in advance and and checked the same day before arrival. Room given away by sweet talking man. Hotel staff in lobby told me it had been given away just prior to arrival.More</t>
   </si>
   <si>
+    <t>Edgar B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r315513690-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1318,6 +1471,9 @@
     <t>All staff was great, but one in particular was GREAT: Lisbeth in the front desk made sure my stay was a great experience with her professionalism and skills as a host. I recommend to stay and enjoy the Decatur  area.More</t>
   </si>
   <si>
+    <t>Amanda B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r315513994-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1336,6 +1492,9 @@
     <t>The king beds are the most comfortable I've ever slept in and the rooms are great. I don't know what else to say to write the minimum 200 character review. This is the only complaint so far. If I write a review I shouldn't be obligated to write a 200 character one. One sentence should be sufficient.More</t>
   </si>
   <si>
+    <t>kandy s</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r310816182-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1363,6 +1522,9 @@
     <t>We spent the night in a room with queen beds. My mattress was okay, but my husbands was very sunken in the middle. The room also was just not as clean as we normally experience at this chain. We have stayed at this hotel a year ago and it was great. We were disappointed with the change in quality.More</t>
   </si>
   <si>
+    <t>Susan S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r307610171-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1384,6 +1546,9 @@
     <t>This was by far the nicest motel we stayed in during our vacation. I made the reservation by phone in the car from a few hours away after reading reviews online. The one about difficulty getting to the motel from the southbound hiway was absolutely correct, but frequently relying on Garmin we are used to turning around. Roberta checked us in , personally checked our room and assisted me with the luggage cart and cat crate. The room was huge-and immaculate. The bathroom was spotless and large enough for the kitty supplies and crate. The  room was next to the elevator and Roberta offered to move us to another or to call her if we decided to later. I honestly never heard it once. When I received the charge notification email from American Express the it was not the rate Stephanie quoted on the phone. I called Roberta and she amended the bill. She said she couldn't reduce to amount quoted but I had not read the confirmation email sent from La Quinta when I was still in car so I was willing to accept the price-not worth haggling over $4.00 and room was perfect and we were settled in .  The breakfast was also the best we'd had all week. The dining room was clean, and there was plenty  of every dish. My only suggestion would be to serve the gravy a little hotter. It was very early so...This was by far the nicest motel we stayed in during our vacation. I made the reservation by phone in the car from a few hours away after reading reviews online. The one about difficulty getting to the motel from the southbound hiway was absolutely correct, but frequently relying on Garmin we are used to turning around. Roberta checked us in , personally checked our room and assisted me with the luggage cart and cat crate. The room was huge-and immaculate. The bathroom was spotless and large enough for the kitty supplies and crate. The  room was next to the elevator and Roberta offered to move us to another or to call her if we decided to later. I honestly never heard it once. When I received the charge notification email from American Express the it was not the rate Stephanie quoted on the phone. I called Roberta and she amended the bill. She said she couldn't reduce to amount quoted but I had not read the confirmation email sent from La Quinta when I was still in car so I was willing to accept the price-not worth haggling over $4.00 and room was perfect and we were settled in .  The breakfast was also the best we'd had all week. The dining room was clean, and there was plenty  of every dish. My only suggestion would be to serve the gravy a little hotter. It was very early so the slow cooker may not have had time to reach peak temperature. By the time I checked out Stephanie had come in for the morning shift . I commented about the room rate and she remembered talking to me and agreed the rate was incorrect. Again, not was fighting over $4.00 and I had paperwork in hand and on the way the door. . We enjoyed the stay very much. The previous 2 nights had be in the motel from hell: La Quinta -Garden of the Gods-Colorado Springs . We has also been on the road for 12 hours with 2 extremely unhappy cats . If we are ever in this area again we will stay in  Decatur La Quinta and I will recommend to anyone I know who will be travelling thru.More</t>
   </si>
   <si>
+    <t>FoxRunMan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r307384842-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1402,6 +1567,9 @@
     <t>This hotel is conveniently located mid-way on a trip we make frequently between Colorado Springs and Houston. It's new, comfortable and well priced.  It is accessible to several eating places. The staff is friendly.More</t>
   </si>
   <si>
+    <t>Jim S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r306852006-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1423,6 +1591,9 @@
     <t>The staff makes you feel like your an old friend who has returned home, they actualy smile and make you feel welcome. They bend over backwards to make your stay comfortable and enjoyable. The hotel has been recently updated. The facility and rooms are clean. Good bed with lots of pillows and crisp sheets. Decent breakfast, secure parking, nice clean pool, work-out room. Wash room if you need to do some laundry.More</t>
   </si>
   <si>
+    <t>Allison R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r304266759-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1441,6 +1612,9 @@
     <t>passing through and need somewhere to rest your eyes? this hotel will fit the bill. bed was comfortable and the breakfast was good. the staff is really friendly and will go out of their way to make sure your needs are met. but, do not expect to use the wifi. it is very hard to connect!More</t>
   </si>
   <si>
+    <t>Lonnie M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r302447975-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1459,6 +1633,9 @@
     <t>I have stayed at this hotel for my last two trips to Decatur. I normally will choose LaQuinta over other hotels for the value and quality. This hotel absolutely does not measure up to LaQuinta standards. So tired my first night there that I just passed out. But in the morning.... A half inch of dust on the lamps and other accessories, crud in the corners, broken furniture, filthy shower curtains, permanent ring around the tub and hair in it.  Had to specially request the room be cleaned. The carpet in the hallways look water damaged and smell moldy. I returned to the room in hopes of improvement. The second morning we were greeted with roaches. Staff didn't seem surprised when I reported it. Enough is enough. This LaQuinta just does not measure up and they don't seem to care.More</t>
   </si>
   <si>
+    <t>Chris M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r301040073-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1483,6 +1660,9 @@
     <t>Nice clean hotel! Not fancy but nice size, clean, comfortable, and reasonable rates. Hotel appears to be new and the staff keeps it nice and clean. Staff is VERY nice and helpful. I would definitely stay here again.More</t>
   </si>
   <si>
+    <t>Chris And Ar W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r299413812-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1501,6 +1681,9 @@
     <t>Excellent staff, friendly knowledgeable and very helpful. I pick LaQuinta properties on the road now, because many times we are traveling with our pet. A small dog and family member. The La Quintas have made it understood everywhere I've inquired ahead, that they are not "just pet tolerant" but actually Pet Friendly! I would wager that this positive attitude of the pet friendly offer, make nearly all pet owners more considerate of the property and in charge of their pets.More</t>
   </si>
   <si>
+    <t>justravelingalong</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r298545833-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1522,6 +1705,9 @@
     <t>The room we had was fine after we switched rooms in June. Two years and counting for renovations. Still has broken window and no wallpaper in hallway.  Side door didn't close well which made me feel unsafe. No lights on side of building which is bad if going out after dark.  Perimeter of property full of trash.  We liked the property when we first went there about 4 years ago but it has gone downhill.  We will be staying in Bowie on our upcoming trip.The only plus has always been the staff at the front desk.More</t>
   </si>
   <si>
+    <t>Isaac B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r293871369-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1540,6 +1726,9 @@
     <t>i had a horrible stay.  Elevators didn't work.  Housekeeping have attitude when you ask for service.  Management is all in your business. Business center didn't work.  Wifi never worked.  Don't think the bill was paid for wifi.  And don't ask for extra towels. You will never see them.More</t>
   </si>
   <si>
+    <t>Trevor P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r293865794-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1558,6 +1747,9 @@
     <t>#1.  Management is all in your personal business.#2.  Housekeeping talks about guest that stay at the hotel.  Must they know I understand Spanish.  I over heard ugly comments that's was said from housekeeping about other guest.#3. Hotel has been under construction for over a year. Air conditioner unit don't work properly, front desk seemed to have a problem with moving us to a decent operating  room.  #4. If you need Internet well good luck hardly ever worked properly.  Overall I will never stay there again.  My 1 month experience was horrible.  Half the time elevators didn't work.  And don't ask the front desk for towel for the pool.  They dont enough towel for the hotel to supply for pool or get extra towels for the room.  Horrible horrible stay.  Breakfast was ok.  That was about the only thing good about the hotel.More</t>
   </si>
   <si>
+    <t>Sandy H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r290082410-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1582,6 +1774,9 @@
     <t>Only stayed here because My Bariatric Solutions reserved the room for us.  It was confusing to find. Sits back off Hwy 287 and only one way in and out which is right off the highway and vehicles are going by really fast and do not get over.  Hotel was very clean, bed comfortable. Staff very friendly. Plenty of parking. Conveniently located to hospital, restaurants, Wal-Mart, etc.  Breakfast was standard but really good.  Eggs were cooked perfectly, biscuits were not hard, sausage patties not dry, waffles in the shape of Texas. Stayed two nights and hot food was different each morning (first morning eggs and biscuits/gravy; 2nd morning eggs, biscuits, sausage patties and white gravy). Only complaint about breakfast was choice of juices; would have liked orange juice both days. Only had apple and grape juice as options one morning. Pool definitely needs new chairs and loungers.  Were more broken ones than good ones.  Saw several families with pets but did not hear them at night. Overall, nice hotel.More</t>
   </si>
   <si>
+    <t>ldeeb82</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r289985779-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1624,6 +1819,9 @@
     <t>This hotel was relatively new.  The rooms were nice, comfortable and clean.  We like La Quinta because it's "pet friendly".  We were traveling with our dog, and appreciate not having to pay extra fees for having a pet in the room.  My only complaint - the breakfast could have been better - cold eggs and tasteless sausage.More</t>
   </si>
   <si>
+    <t>Chuck145</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r270078786-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1642,6 +1840,9 @@
     <t>First time I stayed in Decatur.  Tried Denton but it was graduation weekend, so found Decatur to be a close option.  Turned out to be a very good stay.  Only stayed one night due to other obligations, but will stay there again in lieu of Denton.  Nothing against Denton, but Decatur is a cute, homey TX town.More</t>
   </si>
   <si>
+    <t>Jack S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r261189553-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1669,6 +1870,9 @@
     <t>will stay here again in the near future. we like the place. Better than most similarly price places.' will stay here again in the near future. we like the place. Better than most similarly price places. will stay here again in the near future. we like the place. Better than most similarly price places.More</t>
   </si>
   <si>
+    <t>Brenda G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r256644762-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1690,6 +1894,9 @@
     <t>La Quinta's are my favorite hotel. I travel every week and they are always pleasant and have our rooms ready and waiting! The extra large rooms and free breakfast are a welcome plus! I earn points very fast with La Quinta and they are always near the highway and easily accessible.  Great staff of employees!More</t>
   </si>
   <si>
+    <t>dak517</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r255366215-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1714,6 +1921,9 @@
     <t>Everyone is so nice, fast to check in and out and as much as I travel they makes me feel like I'm at home. Thanks Everyone. Great Job!!! The bed were soft and comfortable, clean rooms. I highly recommend this location.More</t>
   </si>
   <si>
+    <t>Carol S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r253316553-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1732,6 +1942,9 @@
     <t>We could not sleep due to the constant flushing of water running through the pipes. On and off all night.  I do not know about the other rooms....but the water pipes do run through room 210. Front desk young man was nice .More</t>
   </si>
   <si>
+    <t>Jennifer S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r238260863-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1759,6 +1972,9 @@
     <t>I kid you not - these were the best beds I have slept on in a LaQuinta.   I have a Tempurpedic at home and am quite sensitive to  mattress quality.  Room was very comfortable and clean as well.  Check in was a breeze with friendly staff.  Easy on and off the highway for those just passing through as I was.  More</t>
   </si>
   <si>
+    <t>662cecilf</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r234826588-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1780,6 +1996,9 @@
     <t>The hotel staff could not have been more friendly and helpful.  Comfy night's rest, great hot breakfast, reasonable rates.  General Manager went out of her way to make sure we were accommodated.  Would highly recommend staying at La Quinta in Decatur!More</t>
   </si>
   <si>
+    <t>Pamela P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r234480510-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1798,6 +2017,9 @@
     <t>Friendly staff, clean rooms, well stocked "Great Starts" breakfast which included sausage, biscuits &amp; gravy, scrambled eggs, waffles, assorted pastries &amp; two types of juice.  The beds were comfy &amp; no noise issues whatsoever.  We would stay here again.More</t>
   </si>
   <si>
+    <t>tamdsg1213</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r232027288-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1816,6 +2038,9 @@
     <t>Responded October 2, 2014</t>
   </si>
   <si>
+    <t>Jpamr5</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r219131272-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1843,6 +2068,9 @@
     <t>As mentioned in other reviews the lobby area is modernly decorated and other parts of the hotel are in need of updates, but the hotel is clean. We enjoyed our stay. The room was clean and spacious. Breakfast was ok. The front desk person (only person there) was also the person taking care of the breakfast which we found as odd since other places have  separate breakfast staff. The price was reasonable. Staff was friendly.More</t>
   </si>
   <si>
+    <t>Dorothy G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r218807979-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1861,6 +2089,9 @@
     <t>Stayed here for 3 nights. Hotel is in BAD need of a makeover. Looks like they started, but quit. Wallpaper hanging loose or either missing from walls on every floor. Never saw any reno workers during the time there. Staff was helpful &amp; polite. Rooms poorly furnished. Air units very loud. Scent of pets present (even though i have not experienced this at any other Laquinta &amp; I sometimes travel with mine). Wise Regional really needs to contract with another hotel for their clients. I would not recommend. The price was good, but unfortunately, you do get what u pay for.More</t>
   </si>
   <si>
+    <t>doceyes</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r213864273-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1879,6 +2110,9 @@
     <t>We were traveling with 2 small dogs and knew of LaQuinta's pet policy, as we have stayed at many LQ's before. I booked a "family suite" for me, wife, our 2 teens, and of course the dogs.  The hotel is a little difficult to see from the Hiway, but very easy to park, and check in. The hotel was very clean, well maintained, and good price of about $100 for the family suite: it had a very large room with a kingsize bed, and a separate large room with 2 queensize beds! It was like getting 2 hotel rooms for the price of 1.  Breakfast was good: standard fare of cereals, muffins, waffles.  Also had sausage, eggs, biscuits.  Great staff. Pet friendly.  Oh yea, the beds were great.More</t>
   </si>
   <si>
+    <t>PJW79549</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r212837076-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1897,6 +2131,9 @@
     <t>June 2014</t>
   </si>
   <si>
+    <t>Bjhaddock</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r212772123-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1909,6 +2146,9 @@
     <t xml:space="preserve">The bed was Horrible! I felt like I was sleeping in a hammock. The halls smelt of smoke! The Breakfast was not even warm one of the days. And either staff dies not know how to use thier computer system or the system is broke as they tried to charge my account 5 different times telling me it kept declining and when I called my bank they said it was approved. Really a mess. </t>
   </si>
   <si>
+    <t>ZigerII</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r209808123-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1924,6 +2164,9 @@
     <t>Clean, well kept rooms.  Clean lobby.  Pleasant, effective staff.  Our room was waiting for us, and no problems whatsoever.  And they take the dogs without a problem - thought this time they stayed at home.  What's not to like.</t>
   </si>
   <si>
+    <t>Joe G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r206913470-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1942,6 +2185,9 @@
     <t>May 2014</t>
   </si>
   <si>
+    <t>Fisher238</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r206849677-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1957,6 +2203,9 @@
     <t>We have been staying at this particular motel for a few years now, and this was probably the last.  The level of cleanliness has gone down, year after year, and the overall appearance is becoming a little shabby.  The seals on the granite in the bathroom was poor, as was the state of the grouting.  The bathroom could have done with a really good clean. Nothing was absolutely terrible, but everything was badly used.  The back of the remote was missing as was the full length mirror.  I must say, however, that the beds remain clean, which is a plus.  The foyer had a layer of dust all over it, and after writing in the dust on one day, it was evident that it had just been pushed around the next day.  Such a shame.More</t>
   </si>
   <si>
+    <t>nightbird69</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r205463067-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1975,6 +2224,9 @@
     <t>We walked in this beautiful clean smelling hotel about 6:30pm on 5/13/2014. I apologize that I didn't get the sweetest gentleman's name at the checkout upon us arriving. He was so helpful &amp; so sweet to us. We stayed in Room 400 &amp; it was the most gorgeous room. It had a separate living room, a huge bathroom, &amp; a big bedroom with a big King sized bed with the softest sheets I have ever slept on. The room smelled like fresh roses and so did the hotel hallway. It was very, very quiet and I will definitely be back again. Next time I go back I will look for that sweetie that checked us in our room. Its people like him that keep us coming back.More</t>
   </si>
   <si>
+    <t>Beverly P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r205226760-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1993,6 +2245,9 @@
     <t>We had a king bed which was very comfortable and we slept well. The reasons I am saying that we were disappointed are these: The lamp on the side table had obviously been thrown, the switch was loose and the lampshade dented and out of alignment. The dresser looked as if it had been on the receiving end of the thrown lamp with pieces of wood missing. Also, the shower curtain had mold on it.  but, the toilet and sink were clean as was the bedding. The breakfast was adequate. The young lady working at the front desk was very kind and recommended a restaurant, and brought up extra blankets for us. Our room number was 315.More</t>
   </si>
   <si>
+    <t>Aaron V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r204759612-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -2008,6 +2263,9 @@
     <t>I was very impressed with the cleanliness and decorations of the hotel. The employees were extremely friendly. Even called to make sure everything was ok with our room about 10-15 mins after checking in. I would return to this hotel if need be with no questions asked.</t>
   </si>
   <si>
+    <t>Donna H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r204759265-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -2026,6 +2284,9 @@
     <t>April 2014</t>
   </si>
   <si>
+    <t>Srichardson86</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r202643498-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -2041,6 +2302,9 @@
     <t xml:space="preserve">As a traveller, I spend a lot of night in LaQuinta hotels across the country. I have to say that this one doesn't disappoint. I was immediately upgraded to an executive suite without even asking. Front desk service was great with a happy hour going on in the lobby. Pets are welcome. Rooms are very clean. Some remodeling going on, but nothing to discredit the hotel or our stay. Will recommend to anyone passing through. </t>
   </si>
   <si>
+    <t>Cathy W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r201634690-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -2056,6 +2320,9 @@
     <t>The only bad thing I can say about our stay at this hotel is that we had a child above us who was allowed to run &amp; jump until after 11 p.m. every night. The staff was friendly &amp; helpful. Suites are HUGE! Rooms were very nice &amp; clean. Rubber eggs were served at breakfast, but its a hotel not a restaurant. We will stay again.</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r197581828-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -2074,6 +2341,9 @@
     <t>February 2014</t>
   </si>
   <si>
+    <t>Travis H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r196063237-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -2089,6 +2359,9 @@
     <t>Currently being renovated as of March 1st, but work did not interfere with our stay.  The entrance is a little tricky to get to, but Decatur is a town that has a weird layout, so it isn't really the hotel's fault.  Rooms were very clean.  All fixtures and lighting worked, bathroom was spotless.  Employees were very friendly and helpful.  Good value for price.</t>
   </si>
   <si>
+    <t>travelingladySF</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r192017134-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -2101,6 +2374,9 @@
     <t>January 2014</t>
   </si>
   <si>
+    <t>A-Good-Bite</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r191469165-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -2122,6 +2398,9 @@
     <t>When I travel I usually navigate through the La Qunita's because I have a dog. They don't upcharge for an animal and have very reasonable rates. They do vary though from place to place in terms of quality. I had an excellent experience at the Decateur property when I stopped and checked in there with Justin. He runs a great front desk operation and even goes above &amp; beyond to put out a little "social" in the eves at 6ish. My tv didn't work &amp; he was onit within minutes. It's clean, has nice ammenities and the rooms are spacious &amp; upgraded. If you're passing through Texas, choose this one!More</t>
   </si>
   <si>
+    <t>A La Quinta traveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r187889549-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -2146,6 +2425,9 @@
     <t>Mr Patel and his staff were fantastic!! Great location - you need anything they will take care of you. They did our team laundry, breakfast was great, plenty of good food for 14 hungry basketball players, rooms were great, clean, and we had a nice quite and restful stay.</t>
   </si>
   <si>
+    <t>PermaVacationer78</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r186943785-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -2176,6 +2458,9 @@
     <t>November 2013</t>
   </si>
   <si>
+    <t>Tom B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r181207017-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -2194,6 +2479,9 @@
     <t>December 2012</t>
   </si>
   <si>
+    <t>Scott H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r180525056-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -2212,6 +2500,9 @@
     <t>October 2013</t>
   </si>
   <si>
+    <t>pettravelkit</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r177235721-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -2230,6 +2521,9 @@
     <t>We gave this hotel a glowing review a few years ago when it was newly opened. Unfortunately it has gone way downhill. The rate is way too high. There are so many single male workers that stay at this hotel, the parking lot is full of pickup trucks and there is a permanent boot scraper at the entrance. There is yellow dust everywhere at the entrance and the ashtray is always overflowing with butts. After an annoying check in, we got to our room which had a terrible odor. The beds were both all rumpled like someone had already checked into the room, put all their stuff in the bed, sat on it and then decided to leave (probably because it stunk). And the way they make the beds is so unsanitary - the top sheet and blanket are folded back halfway and the decorative bolster is put across the bottom sheet that you sleep on and against the pillows. Goodness knows how many people have touched that bolster and thrown it on the floor. Ick. The room is so dark you can hardly see even with every light on. The bathroom fan is on the same switch as the light so you always have to hear it. We had two washcloths - one was in a wicker basket (how many hands have touched that basket?) under the small shampoo and soap and the other was so discolored (although it...We gave this hotel a glowing review a few years ago when it was newly opened. Unfortunately it has gone way downhill. The rate is way too high. There are so many single male workers that stay at this hotel, the parking lot is full of pickup trucks and there is a permanent boot scraper at the entrance. There is yellow dust everywhere at the entrance and the ashtray is always overflowing with butts. After an annoying check in, we got to our room which had a terrible odor. The beds were both all rumpled like someone had already checked into the room, put all their stuff in the bed, sat on it and then decided to leave (probably because it stunk). And the way they make the beds is so unsanitary - the top sheet and blanket are folded back halfway and the decorative bolster is put across the bottom sheet that you sleep on and against the pillows. Goodness knows how many people have touched that bolster and thrown it on the floor. Ick. The room is so dark you can hardly see even with every light on. The bathroom fan is on the same switch as the light so you always have to hear it. We had two washcloths - one was in a wicker basket (how many hands have touched that basket?) under the small shampoo and soap and the other was so discolored (although it was clean), it was disgusting. The free in-room wifi didn't work. Breakfast wasn't open until 7AM and we had to be on the road before that. There was coffee in the breakfast room available earlier which we appreciated. We did have 2 real and 2 decaf coffee pods in the room which is more than at most hotels. The young lady at checkout was lovely and when we told her our issues she was apologetic. There is a huge sign in the lobby asking for a good review. Sorry.More</t>
   </si>
   <si>
+    <t>Frachand78</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r167086334-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -2245,6 +2539,9 @@
     <t>I loved this LaQuinta. I love all Laquinta's because they allow my dogs to stay with me but this hotel had the friendliest staff! Breakfast was nice. And I got upgraded to a suite for free!! If you're ever in the Decatur area try the LaQuinta!!!</t>
   </si>
   <si>
+    <t>J M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r167084929-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -2260,6 +2557,9 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>Bayoung12</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r167057679-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -2272,6 +2572,9 @@
     <t xml:space="preserve">I travel with work often meeting with clients and entertaining future business prospects. I meet with a group of entrepreneurs for a two day seminar in Decatur and I was highly impressed with the staff and management team at the hotel.  Innovative and lavish design throughout the hotel with state-of-the-art fitness equipment made me feel as if I was at home. The hotel was very clean and accommodating to everyone's request. I will be sure to stay here again. </t>
   </si>
   <si>
+    <t>Matt2531</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r167032327-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -2285,6 +2588,9 @@
   </si>
   <si>
     <t>February 2013</t>
+  </si>
+  <si>
+    <t>Stacie R</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r166859986-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
@@ -2307,6 +2613,9 @@
 The breakfast was actually pretty good.  There was the standard continental breakfast fare along with eggs, biscuits and...I stayed here with my daughter for one night.  We checked in later in the evening and check in was fast and efficient.  There weren't many cars in the parking lot and although we had requested a quiet room, we got the one of the first floor right next to the elevator.  I thought about trying to change rooms, but my daughter was very tired and we still had to unload and go through the bedtime routine, so we stayed in the room.  On our way to the room we noticed the hallway carpet was pretty dirty.  Our room was spacious, and we appreciated the larger mini fridge with a small freezer.  The furniture wasn't in the best shape and the bed was horrible.  It had a huge depression on one side of the king size bed like someone had been sleeping in that exact space for 10 years. You could feel every spring.  I didn't sleep most of the night.  The towels were thin and small and only two bath towels were provided and one wash cloth.  I travel pretty frequently with my daughter and I have never seen so few towels provided.  I have really long hair and I use 2 towels for me and one for my daughter and three to four is the standard we've seen everywhere else.  The breakfast was actually pretty good.  There was the standard continental breakfast fare along with eggs, biscuits and gravy as hot items.  They kept it clean and well stocked, but it appeared that the front desk person was doing double duty with the breakfast and the front desk.  That's probably why there was no one at the front desk for 5 minutes when we went to try to check out.One important note about location.  The directions on the hotel's website coming from the east and south and I believe north, say to come west on 380 and then south on 287.  Unfortunately, the hotel is on the other side of the highway and there is nowhere to cross.  You have to go all the way south to the next turnaround and then come back north and really watch for the driveway, which is right off of hwy 287, which is hard to see in the dark.  If you are coming from the east or south, you would be better off catching 287 in Dallas and taking it north to the hotel.    The rate was reasonable, but honestly, I don't care how reasonable it is if you can't get a good night's rest, it isn't worth it. I wouldn't stay here again.More</t>
   </si>
   <si>
+    <t>NolaBleu</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r166802629-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -2322,6 +2631,9 @@
     <t>I have stayed at this location several times. The staff, can't say enough about the staff that greet me with the same million dollar smiles as I enter the hotel each time. Rooms are very spacious and the AC works wonderful. Its nice to enter a room and see that pillow top bed awaiting.  Very comfortable beds!  Quiet location, just around the corner from eating and shopping. The General Manager goes out of her way to make sure my stay is excellent. They have a social on Tuesday and Thursdays nights in the breakfast area right by the lobby. Its nice to be offered some home cooked meals and a glass of beer. Makes it that much more special.More</t>
   </si>
   <si>
+    <t>Ashlee J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r166790147-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -2334,6 +2646,9 @@
     <t>The staff was very welcoming! Honored a military discount. quick and kind check-in. our family dog was also greeted and welcomed with open arms! The rooms were comfy AND clean. BEST beds weve ever slept on! Requested extra pillows and blankets, which were brought immediately up to our room. Breakfast was delicious and fully stocked every morning! Could not have been a better stay!</t>
   </si>
   <si>
+    <t>Holley-7</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r166753982-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -2349,6 +2664,9 @@
     <t>May 2013</t>
   </si>
   <si>
+    <t>ricky p</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r166753926-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -2373,6 +2691,9 @@
     <t>June 2013</t>
   </si>
   <si>
+    <t>570jerryc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r161996948-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -2382,6 +2703,9 @@
     <t>05/27/2013</t>
   </si>
   <si>
+    <t>Dave F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r161279585-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -2400,6 +2724,9 @@
     <t>Checking in, there was no one at the desk for several minutes.  Later, 2 people came out from the office.  I'm guessing it was the manager that checked me in, but he really didn't seem to understand there computer system, plus it was running slowly.  I think the whole process took about 25 minutes to get checked in.  Yowza.  Then, they failed to give me my credit card back which i realized later in the day when i tried to get gas.  Thanks.  After night 1, they did not service the room.  Thanks.  Room was fine, quiet and comfy beds.  But tt would be easy to stay somewhere else.  Perhaps i will next time...More</t>
   </si>
   <si>
+    <t>CDM49</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r160222861-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -2415,6 +2742,9 @@
     <t>We stay at La Quinta's because they allow our dog with no additional cost, they are clean, friendly, reasonable cost and easy to find.  Don't care much for the breakfast even if it is included.  And they could use some bigger pillows (room service did not have any extras).  This local hotel met all of the above and since we go this way several times a year we will stop here again. Plenty of parking available</t>
   </si>
   <si>
+    <t>Carol B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r159835067-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -2430,6 +2760,9 @@
     <t>There were four of us traveling so this a review by 4 people.  One room did not have coffee cups, one room did not have wash cloths, one room wash cloths were dirty looking. At breakfast time, ran out of coffee cups at 7 AM (was given a coffee mug from the kitchen to use and this happend to 3 of us.  Then they ran out of forks.  However, the sausage and gravey was excellent.  We will not stay here again.</t>
   </si>
   <si>
+    <t>HouTXCRB</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r158955314-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -2442,6 +2775,9 @@
     <t>April 2013</t>
   </si>
   <si>
+    <t>Annie0818</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r90403804-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -2460,6 +2796,9 @@
     <t>December 2010</t>
   </si>
   <si>
+    <t>HotelMom2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r72931777-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -2478,6 +2817,9 @@
     <t>July 2010</t>
   </si>
   <si>
+    <t>ashley1126</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r70421389-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -2496,6 +2838,9 @@
     <t>We arrived at the LaQuinta at 9:00 p.m. and when we walked in, they already had our paperwork ready for us to sign and our keys. The room was a very nice size. It was clean and our king sized bed was very comfortable. I was able to access the free wireless connection without any problem. The breakfast was nice and had a variety of choices including hot waffles, bacon, sausage and pastries, etc. The coffee was great! The staff was very friendly, especially Juanita, who was on the evening shift. They were available to help immediately.  I had read the reviews on Tripadvisor and they were right. I think you would be very pleased with this hotel.More</t>
   </si>
   <si>
+    <t>fcs659pa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r67642934-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -2514,6 +2859,9 @@
     <t>June 2010</t>
   </si>
   <si>
+    <t>heartdocaustin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r56531709-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -2530,6 +2878,9 @@
   </si>
   <si>
     <t>February 2010</t>
+  </si>
+  <si>
+    <t>TravelFan</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d1484938-r42464626-La_Quinta_Inn_Suites_Decatur-Decatur_Texas.html</t>
@@ -3076,43 +3427,47 @@
       <c r="A2" t="n">
         <v>59287</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>165002</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>5</v>
@@ -3134,56 +3489,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>59287</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>165003</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -3205,56 +3564,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>59287</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>165004</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="n">
         <v>5</v>
@@ -3276,56 +3639,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>59287</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>165005</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="n">
         <v>5</v>
@@ -3347,56 +3714,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="X5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="Y5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>59287</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>4552</v>
+      </c>
+      <c r="C6" t="s">
+        <v>85</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="L6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P6" t="n">
         <v>3</v>
@@ -3418,54 +3789,58 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="X6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="Y6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>59287</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>165006</v>
+      </c>
+      <c r="C7" t="s">
+        <v>95</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="J7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
@@ -3487,56 +3862,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="X7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="Y7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>59287</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>165007</v>
+      </c>
+      <c r="C8" t="s">
+        <v>103</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="J8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="K8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="L8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
@@ -3554,56 +3933,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="X8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="Y8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>59287</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>165008</v>
+      </c>
+      <c r="C9" t="s">
+        <v>113</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="J9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="K9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="L9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P9" t="n">
         <v>2</v>
@@ -3625,56 +4008,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="X9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="Y9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>59287</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>165009</v>
+      </c>
+      <c r="C10" t="s">
+        <v>122</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="J10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="K10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="L10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O10" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P10" t="n">
         <v>4</v>
@@ -3696,56 +4083,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="X10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="Y10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>59287</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>165010</v>
+      </c>
+      <c r="C11" t="s">
+        <v>131</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="J11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="K11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="L11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="O11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -3757,56 +4148,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="X11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="Y11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>59287</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>25538</v>
+      </c>
+      <c r="C12" t="s">
+        <v>141</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="J12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="K12" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="L12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="n">
         <v>3</v>
@@ -3828,56 +4223,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="X12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="Y12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>59287</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>165011</v>
+      </c>
+      <c r="C13" t="s">
+        <v>151</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="J13" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="K13" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="L13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="O13" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -3899,56 +4298,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="X13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="Y13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>59287</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>165012</v>
+      </c>
+      <c r="C14" t="s">
+        <v>160</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="J14" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="K14" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="L14" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="O14" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P14" t="n">
         <v>5</v>
@@ -3970,56 +4373,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="X14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="Y14" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>59287</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>165013</v>
+      </c>
+      <c r="C15" t="s">
+        <v>170</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="J15" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="K15" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="L15" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="n">
         <v>1</v>
@@ -4041,56 +4448,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="X15" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="Y15" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>59287</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>165014</v>
+      </c>
+      <c r="C16" t="s">
+        <v>178</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="J16" t="s">
+        <v>181</v>
+      </c>
+      <c r="K16" t="s">
+        <v>182</v>
+      </c>
+      <c r="L16" t="s">
+        <v>183</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
         <v>166</v>
       </c>
-      <c r="K16" t="s">
-        <v>167</v>
-      </c>
-      <c r="L16" t="s">
-        <v>168</v>
-      </c>
-      <c r="M16" t="n">
-        <v>5</v>
-      </c>
-      <c r="N16" t="s">
-        <v>153</v>
-      </c>
       <c r="O16" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P16" t="n">
         <v>5</v>
@@ -4112,56 +4523,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="X16" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="Y16" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>59287</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>10853</v>
+      </c>
+      <c r="C17" t="s">
+        <v>187</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="J17" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="K17" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="L17" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -4177,56 +4592,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="X17" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="Y17" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>59287</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>165015</v>
+      </c>
+      <c r="C18" t="s">
+        <v>194</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="J18" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="K18" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="L18" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="n">
         <v>2</v>
@@ -4248,56 +4667,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="X18" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="Y18" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>59287</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>165016</v>
+      </c>
+      <c r="C19" t="s">
+        <v>204</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="J19" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="K19" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="L19" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="O19" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -4319,56 +4742,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="X19" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="Y19" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>59287</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>5335</v>
+      </c>
+      <c r="C20" t="s">
+        <v>213</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="J20" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="K20" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="L20" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="O20" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -4384,56 +4811,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="X20" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="Y20" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>59287</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>165017</v>
+      </c>
+      <c r="C21" t="s">
+        <v>223</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="J21" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="K21" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="L21" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -4455,56 +4886,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="X21" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="Y21" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>59287</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>165018</v>
+      </c>
+      <c r="C22" t="s">
+        <v>232</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="J22" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="K22" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="L22" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="M22" t="n">
         <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -4516,56 +4951,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="X22" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="Y22" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>59287</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>57463</v>
+      </c>
+      <c r="C23" t="s">
+        <v>242</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="J23" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="K23" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="L23" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="O23" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P23" t="n">
         <v>4</v>
@@ -4587,56 +5026,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="X23" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="Y23" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>59287</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>165019</v>
+      </c>
+      <c r="C24" t="s">
+        <v>251</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="J24" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="K24" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="L24" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="O24" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -4658,56 +5101,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="X24" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="Y24" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>59287</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>165020</v>
+      </c>
+      <c r="C25" t="s">
+        <v>261</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="J25" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="K25" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="L25" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="O25" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P25" t="n">
         <v>5</v>
@@ -4729,56 +5176,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="X25" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="Y25" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>59287</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>165021</v>
+      </c>
+      <c r="C26" t="s">
+        <v>269</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="J26" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="K26" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="L26" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="O26" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -4796,56 +5247,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="X26" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="Y26" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>59287</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>165022</v>
+      </c>
+      <c r="C27" t="s">
+        <v>278</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="J27" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="K27" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="L27" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="O27" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -4867,56 +5322,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="X27" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="Y27" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>59287</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>165023</v>
+      </c>
+      <c r="C28" t="s">
+        <v>288</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="J28" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="K28" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="L28" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="O28" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -4938,56 +5397,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="X28" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="Y28" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>59287</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>65084</v>
+      </c>
+      <c r="C29" t="s">
+        <v>295</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="J29" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="K29" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="L29" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -5003,54 +5466,58 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="X29" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="Y29" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>59287</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>165024</v>
+      </c>
+      <c r="C30" t="s">
+        <v>304</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="J30" t="s">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="K30" t="s"/>
       <c r="L30" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" t="n">
         <v>5</v>
@@ -5072,56 +5539,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="X30" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="Y30" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>59287</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>165025</v>
+      </c>
+      <c r="C31" t="s">
+        <v>309</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="J31" t="s">
-        <v>282</v>
+        <v>312</v>
       </c>
       <c r="K31" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="L31" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="O31" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -5133,56 +5604,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="X31" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="Y31" t="s">
-        <v>285</v>
+        <v>315</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>59287</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>26565</v>
+      </c>
+      <c r="C32" t="s">
+        <v>316</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>286</v>
+        <v>317</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="J32" t="s">
-        <v>288</v>
+        <v>319</v>
       </c>
       <c r="K32" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="L32" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>291</v>
+        <v>322</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -5206,50 +5681,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>59287</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>165026</v>
+      </c>
+      <c r="C33" t="s">
+        <v>323</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>292</v>
+        <v>324</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>293</v>
+        <v>325</v>
       </c>
       <c r="J33" t="s">
-        <v>294</v>
+        <v>326</v>
       </c>
       <c r="K33" t="s">
-        <v>295</v>
+        <v>327</v>
       </c>
       <c r="L33" t="s">
-        <v>296</v>
+        <v>328</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>291</v>
+        <v>322</v>
       </c>
       <c r="O33" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P33" t="n">
         <v>5</v>
@@ -5273,50 +5752,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>296</v>
+        <v>328</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>59287</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>3300</v>
+      </c>
+      <c r="C34" t="s">
+        <v>329</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>298</v>
+        <v>331</v>
       </c>
       <c r="J34" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="K34" t="s">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="L34" t="s">
-        <v>301</v>
+        <v>334</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>302</v>
+        <v>335</v>
       </c>
       <c r="O34" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -5334,50 +5817,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>301</v>
+        <v>334</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>59287</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>165027</v>
+      </c>
+      <c r="C35" t="s">
+        <v>336</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>303</v>
+        <v>337</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>304</v>
+        <v>338</v>
       </c>
       <c r="J35" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="K35" t="s">
-        <v>306</v>
+        <v>340</v>
       </c>
       <c r="L35" t="s">
-        <v>307</v>
+        <v>341</v>
       </c>
       <c r="M35" t="n">
         <v>2</v>
       </c>
       <c r="N35" t="s">
-        <v>291</v>
+        <v>322</v>
       </c>
       <c r="O35" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P35" t="n">
         <v>2</v>
@@ -5401,50 +5888,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>307</v>
+        <v>341</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>59287</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>165028</v>
+      </c>
+      <c r="C36" t="s">
+        <v>342</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>308</v>
+        <v>343</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="J36" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="K36" t="s">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="L36" t="s">
-        <v>312</v>
+        <v>347</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>313</v>
+        <v>348</v>
       </c>
       <c r="O36" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
@@ -5466,56 +5957,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>314</v>
+        <v>349</v>
       </c>
       <c r="X36" t="s">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="Y36" t="s">
-        <v>316</v>
+        <v>351</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>59287</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>165029</v>
+      </c>
+      <c r="C37" t="s">
+        <v>352</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>317</v>
+        <v>353</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>318</v>
+        <v>354</v>
       </c>
       <c r="J37" t="s">
-        <v>319</v>
+        <v>355</v>
       </c>
       <c r="K37" t="s">
-        <v>320</v>
+        <v>356</v>
       </c>
       <c r="L37" t="s">
-        <v>321</v>
+        <v>357</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>313</v>
+        <v>348</v>
       </c>
       <c r="O37" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="n">
@@ -5533,56 +6028,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>314</v>
+        <v>349</v>
       </c>
       <c r="X37" t="s">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="Y37" t="s">
-        <v>322</v>
+        <v>358</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>59287</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>33185</v>
+      </c>
+      <c r="C38" t="s">
+        <v>359</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>323</v>
+        <v>360</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="J38" t="s">
-        <v>325</v>
+        <v>362</v>
       </c>
       <c r="K38" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
       <c r="L38" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>313</v>
+        <v>348</v>
       </c>
       <c r="O38" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="n">
@@ -5598,56 +6097,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="X38" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="Y38" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>59287</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>165030</v>
+      </c>
+      <c r="C39" t="s">
+        <v>368</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>332</v>
+        <v>370</v>
       </c>
       <c r="J39" t="s">
-        <v>333</v>
+        <v>371</v>
       </c>
       <c r="K39" t="s">
-        <v>334</v>
+        <v>372</v>
       </c>
       <c r="L39" t="s">
-        <v>335</v>
+        <v>373</v>
       </c>
       <c r="M39" t="n">
         <v>3</v>
       </c>
       <c r="N39" t="s">
-        <v>336</v>
+        <v>374</v>
       </c>
       <c r="O39" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="P39" t="n">
         <v>2</v>
@@ -5669,56 +6172,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>337</v>
+        <v>375</v>
       </c>
       <c r="X39" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="Y39" t="s">
-        <v>338</v>
+        <v>376</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>59287</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>165031</v>
+      </c>
+      <c r="C40" t="s">
+        <v>377</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>339</v>
+        <v>378</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>340</v>
+        <v>379</v>
       </c>
       <c r="J40" t="s">
-        <v>341</v>
+        <v>380</v>
       </c>
       <c r="K40" t="s">
-        <v>342</v>
+        <v>381</v>
       </c>
       <c r="L40" t="s">
-        <v>343</v>
+        <v>382</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>336</v>
+        <v>374</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -5742,50 +6249,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>343</v>
+        <v>382</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>59287</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>165032</v>
+      </c>
+      <c r="C41" t="s">
+        <v>383</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>344</v>
+        <v>384</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>345</v>
+        <v>385</v>
       </c>
       <c r="J41" t="s">
-        <v>341</v>
+        <v>380</v>
       </c>
       <c r="K41" t="s">
-        <v>346</v>
+        <v>386</v>
       </c>
       <c r="L41" t="s">
-        <v>347</v>
+        <v>387</v>
       </c>
       <c r="M41" t="n">
         <v>2</v>
       </c>
       <c r="N41" t="s">
-        <v>336</v>
+        <v>374</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P41" t="n">
         <v>2</v>
@@ -5809,50 +6320,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>348</v>
+        <v>388</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>59287</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>23477</v>
+      </c>
+      <c r="C42" t="s">
+        <v>389</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>349</v>
+        <v>390</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>350</v>
+        <v>391</v>
       </c>
       <c r="J42" t="s">
-        <v>351</v>
+        <v>392</v>
       </c>
       <c r="K42" t="s">
-        <v>352</v>
+        <v>393</v>
       </c>
       <c r="L42" t="s">
-        <v>353</v>
+        <v>394</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>354</v>
+        <v>395</v>
       </c>
       <c r="O42" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -5876,50 +6391,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>353</v>
+        <v>394</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>59287</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>3836</v>
+      </c>
+      <c r="C43" t="s">
+        <v>396</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>355</v>
+        <v>397</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>356</v>
+        <v>398</v>
       </c>
       <c r="J43" t="s">
-        <v>357</v>
+        <v>399</v>
       </c>
       <c r="K43" t="s">
-        <v>358</v>
+        <v>400</v>
       </c>
       <c r="L43" t="s">
-        <v>359</v>
+        <v>401</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>360</v>
+        <v>402</v>
       </c>
       <c r="O43" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -5931,56 +6450,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>361</v>
+        <v>403</v>
       </c>
       <c r="X43" t="s">
-        <v>362</v>
+        <v>404</v>
       </c>
       <c r="Y43" t="s">
-        <v>363</v>
+        <v>405</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>59287</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>165033</v>
+      </c>
+      <c r="C44" t="s">
+        <v>406</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>364</v>
+        <v>407</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>365</v>
+        <v>408</v>
       </c>
       <c r="J44" t="s">
-        <v>366</v>
+        <v>409</v>
       </c>
       <c r="K44" t="s">
-        <v>367</v>
+        <v>410</v>
       </c>
       <c r="L44" t="s">
-        <v>368</v>
+        <v>411</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>369</v>
+        <v>412</v>
       </c>
       <c r="O44" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P44" t="n">
         <v>3</v>
@@ -6002,56 +6525,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>361</v>
+        <v>403</v>
       </c>
       <c r="X44" t="s">
-        <v>362</v>
+        <v>404</v>
       </c>
       <c r="Y44" t="s">
-        <v>370</v>
+        <v>413</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>59287</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>1074</v>
+      </c>
+      <c r="C45" t="s">
+        <v>414</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>371</v>
+        <v>415</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>372</v>
+        <v>416</v>
       </c>
       <c r="J45" t="s">
-        <v>373</v>
+        <v>417</v>
       </c>
       <c r="K45" t="s">
-        <v>374</v>
+        <v>418</v>
       </c>
       <c r="L45" t="s">
-        <v>375</v>
+        <v>419</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>369</v>
+        <v>412</v>
       </c>
       <c r="O45" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P45" t="n">
         <v>4</v>
@@ -6073,56 +6600,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>361</v>
+        <v>403</v>
       </c>
       <c r="X45" t="s">
-        <v>362</v>
+        <v>404</v>
       </c>
       <c r="Y45" t="s">
-        <v>376</v>
+        <v>420</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>59287</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>16579</v>
+      </c>
+      <c r="C46" t="s">
+        <v>421</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>377</v>
+        <v>422</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>378</v>
+        <v>423</v>
       </c>
       <c r="J46" t="s">
-        <v>379</v>
+        <v>424</v>
       </c>
       <c r="K46" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="L46" t="s">
-        <v>381</v>
+        <v>426</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>382</v>
+        <v>427</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -6144,56 +6675,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>383</v>
+        <v>428</v>
       </c>
       <c r="X46" t="s">
-        <v>384</v>
+        <v>429</v>
       </c>
       <c r="Y46" t="s">
-        <v>385</v>
+        <v>430</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>59287</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>8199</v>
+      </c>
+      <c r="C47" t="s">
+        <v>431</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>386</v>
+        <v>432</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>387</v>
+        <v>433</v>
       </c>
       <c r="J47" t="s">
-        <v>388</v>
+        <v>434</v>
       </c>
       <c r="K47" t="s">
-        <v>389</v>
+        <v>435</v>
       </c>
       <c r="L47" t="s">
-        <v>390</v>
+        <v>436</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>302</v>
+        <v>335</v>
       </c>
       <c r="O47" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -6215,56 +6750,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>361</v>
+        <v>403</v>
       </c>
       <c r="X47" t="s">
-        <v>362</v>
+        <v>404</v>
       </c>
       <c r="Y47" t="s">
-        <v>391</v>
+        <v>437</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>59287</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>165034</v>
+      </c>
+      <c r="C48" t="s">
+        <v>438</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>392</v>
+        <v>439</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>393</v>
+        <v>440</v>
       </c>
       <c r="J48" t="s">
-        <v>394</v>
+        <v>441</v>
       </c>
       <c r="K48" t="s">
-        <v>395</v>
+        <v>442</v>
       </c>
       <c r="L48" t="s">
-        <v>396</v>
+        <v>443</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>397</v>
+        <v>444</v>
       </c>
       <c r="O48" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -6286,56 +6825,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>398</v>
+        <v>445</v>
       </c>
       <c r="X48" t="s">
-        <v>399</v>
+        <v>446</v>
       </c>
       <c r="Y48" t="s">
-        <v>400</v>
+        <v>447</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>59287</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>165035</v>
+      </c>
+      <c r="C49" t="s">
+        <v>448</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>401</v>
+        <v>449</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>402</v>
+        <v>450</v>
       </c>
       <c r="J49" t="s">
-        <v>403</v>
+        <v>451</v>
       </c>
       <c r="K49" t="s">
-        <v>404</v>
+        <v>452</v>
       </c>
       <c r="L49" t="s">
-        <v>405</v>
+        <v>453</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>406</v>
+        <v>454</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -6353,56 +6896,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>398</v>
+        <v>445</v>
       </c>
       <c r="X49" t="s">
-        <v>399</v>
+        <v>446</v>
       </c>
       <c r="Y49" t="s">
-        <v>407</v>
+        <v>455</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>59287</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>2179</v>
+      </c>
+      <c r="C50" t="s">
+        <v>456</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>408</v>
+        <v>457</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>409</v>
+        <v>458</v>
       </c>
       <c r="J50" t="s">
-        <v>410</v>
+        <v>459</v>
       </c>
       <c r="K50" t="s">
-        <v>411</v>
+        <v>460</v>
       </c>
       <c r="L50" t="s">
-        <v>412</v>
+        <v>461</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>413</v>
+        <v>462</v>
       </c>
       <c r="O50" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -6424,56 +6971,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>398</v>
+        <v>445</v>
       </c>
       <c r="X50" t="s">
-        <v>399</v>
+        <v>446</v>
       </c>
       <c r="Y50" t="s">
-        <v>414</v>
+        <v>463</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>59287</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>165036</v>
+      </c>
+      <c r="C51" t="s">
+        <v>464</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>415</v>
+        <v>465</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>416</v>
+        <v>466</v>
       </c>
       <c r="J51" t="s">
-        <v>417</v>
+        <v>467</v>
       </c>
       <c r="K51" t="s">
-        <v>418</v>
+        <v>468</v>
       </c>
       <c r="L51" t="s">
-        <v>419</v>
+        <v>469</v>
       </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
       <c r="N51" t="s">
-        <v>413</v>
+        <v>462</v>
       </c>
       <c r="O51" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P51" t="n">
         <v>1</v>
@@ -6495,56 +7046,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>420</v>
+        <v>470</v>
       </c>
       <c r="X51" t="s">
-        <v>399</v>
+        <v>446</v>
       </c>
       <c r="Y51" t="s">
-        <v>421</v>
+        <v>471</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>59287</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>165037</v>
+      </c>
+      <c r="C52" t="s">
+        <v>472</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>422</v>
+        <v>473</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>423</v>
+        <v>474</v>
       </c>
       <c r="J52" t="s">
-        <v>424</v>
+        <v>475</v>
       </c>
       <c r="K52" t="s">
-        <v>425</v>
+        <v>476</v>
       </c>
       <c r="L52" t="s">
-        <v>426</v>
+        <v>477</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>413</v>
+        <v>462</v>
       </c>
       <c r="O52" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -6566,56 +7121,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>398</v>
+        <v>445</v>
       </c>
       <c r="X52" t="s">
-        <v>399</v>
+        <v>446</v>
       </c>
       <c r="Y52" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>59287</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>3454</v>
+      </c>
+      <c r="C53" t="s">
+        <v>479</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>428</v>
+        <v>480</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>429</v>
+        <v>481</v>
       </c>
       <c r="J53" t="s">
-        <v>430</v>
+        <v>482</v>
       </c>
       <c r="K53" t="s">
-        <v>431</v>
+        <v>483</v>
       </c>
       <c r="L53" t="s">
-        <v>432</v>
+        <v>484</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>413</v>
+        <v>462</v>
       </c>
       <c r="O53" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
@@ -6637,56 +7196,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>398</v>
+        <v>445</v>
       </c>
       <c r="X53" t="s">
-        <v>399</v>
+        <v>446</v>
       </c>
       <c r="Y53" t="s">
-        <v>433</v>
+        <v>485</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>59287</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>165038</v>
+      </c>
+      <c r="C54" t="s">
+        <v>486</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>434</v>
+        <v>487</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>435</v>
+        <v>488</v>
       </c>
       <c r="J54" t="s">
-        <v>436</v>
+        <v>489</v>
       </c>
       <c r="K54" t="s">
-        <v>437</v>
+        <v>490</v>
       </c>
       <c r="L54" t="s">
-        <v>438</v>
+        <v>491</v>
       </c>
       <c r="M54" t="n">
         <v>3</v>
       </c>
       <c r="N54" t="s">
-        <v>439</v>
+        <v>492</v>
       </c>
       <c r="O54" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P54" t="n">
         <v>2</v>
@@ -6704,56 +7267,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>440</v>
+        <v>493</v>
       </c>
       <c r="X54" t="s">
-        <v>441</v>
+        <v>494</v>
       </c>
       <c r="Y54" t="s">
-        <v>442</v>
+        <v>495</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>59287</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>168</v>
+      </c>
+      <c r="C55" t="s">
+        <v>496</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>443</v>
+        <v>497</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>444</v>
+        <v>498</v>
       </c>
       <c r="J55" t="s">
-        <v>445</v>
+        <v>499</v>
       </c>
       <c r="K55" t="s">
-        <v>446</v>
+        <v>500</v>
       </c>
       <c r="L55" t="s">
-        <v>447</v>
+        <v>501</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>413</v>
+        <v>462</v>
       </c>
       <c r="O55" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P55" t="n">
         <v>3</v>
@@ -6771,56 +7338,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>448</v>
+        <v>502</v>
       </c>
       <c r="X55" t="s">
-        <v>441</v>
+        <v>494</v>
       </c>
       <c r="Y55" t="s">
-        <v>449</v>
+        <v>503</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>59287</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>165039</v>
+      </c>
+      <c r="C56" t="s">
+        <v>504</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>450</v>
+        <v>505</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>451</v>
+        <v>506</v>
       </c>
       <c r="J56" t="s">
-        <v>452</v>
+        <v>507</v>
       </c>
       <c r="K56" t="s">
-        <v>453</v>
+        <v>508</v>
       </c>
       <c r="L56" t="s">
-        <v>454</v>
+        <v>509</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>413</v>
+        <v>462</v>
       </c>
       <c r="O56" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P56" t="n">
         <v>4</v>
@@ -6842,56 +7413,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>448</v>
+        <v>502</v>
       </c>
       <c r="X56" t="s">
-        <v>441</v>
+        <v>494</v>
       </c>
       <c r="Y56" t="s">
-        <v>455</v>
+        <v>510</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>59287</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>2907</v>
+      </c>
+      <c r="C57" t="s">
+        <v>511</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>456</v>
+        <v>512</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>457</v>
+        <v>513</v>
       </c>
       <c r="J57" t="s">
-        <v>458</v>
+        <v>514</v>
       </c>
       <c r="K57" t="s">
-        <v>459</v>
+        <v>515</v>
       </c>
       <c r="L57" t="s">
-        <v>460</v>
+        <v>516</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>461</v>
+        <v>517</v>
       </c>
       <c r="O57" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -6913,56 +7488,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>448</v>
+        <v>502</v>
       </c>
       <c r="X57" t="s">
-        <v>441</v>
+        <v>494</v>
       </c>
       <c r="Y57" t="s">
-        <v>462</v>
+        <v>518</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>59287</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>44652</v>
+      </c>
+      <c r="C58" t="s">
+        <v>519</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>463</v>
+        <v>520</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>464</v>
+        <v>521</v>
       </c>
       <c r="J58" t="s">
-        <v>465</v>
+        <v>522</v>
       </c>
       <c r="K58" t="s">
-        <v>466</v>
+        <v>523</v>
       </c>
       <c r="L58" t="s">
-        <v>467</v>
+        <v>524</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>461</v>
+        <v>517</v>
       </c>
       <c r="O58" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="P58" t="n">
         <v>4</v>
@@ -6984,56 +7563,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>448</v>
+        <v>502</v>
       </c>
       <c r="X58" t="s">
-        <v>441</v>
+        <v>494</v>
       </c>
       <c r="Y58" t="s">
-        <v>468</v>
+        <v>525</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>59287</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>165040</v>
+      </c>
+      <c r="C59" t="s">
+        <v>526</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>469</v>
+        <v>527</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>470</v>
+        <v>528</v>
       </c>
       <c r="J59" t="s">
-        <v>465</v>
+        <v>522</v>
       </c>
       <c r="K59" t="s">
-        <v>471</v>
+        <v>529</v>
       </c>
       <c r="L59" t="s">
-        <v>472</v>
+        <v>530</v>
       </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
       <c r="N59" t="s">
-        <v>461</v>
+        <v>517</v>
       </c>
       <c r="O59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="s"/>
@@ -7045,56 +7628,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>473</v>
+        <v>531</v>
       </c>
       <c r="X59" t="s">
-        <v>441</v>
+        <v>494</v>
       </c>
       <c r="Y59" t="s">
-        <v>474</v>
+        <v>532</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>59287</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>578</v>
+      </c>
+      <c r="C60" t="s">
+        <v>533</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>475</v>
+        <v>534</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>476</v>
+        <v>535</v>
       </c>
       <c r="J60" t="s">
-        <v>477</v>
+        <v>536</v>
       </c>
       <c r="K60" t="s">
-        <v>478</v>
+        <v>537</v>
       </c>
       <c r="L60" t="s">
-        <v>479</v>
+        <v>538</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>461</v>
+        <v>517</v>
       </c>
       <c r="O60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -7110,56 +7697,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>480</v>
+        <v>539</v>
       </c>
       <c r="X60" t="s">
-        <v>481</v>
+        <v>540</v>
       </c>
       <c r="Y60" t="s">
-        <v>482</v>
+        <v>541</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>59287</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>165041</v>
+      </c>
+      <c r="C61" t="s">
+        <v>542</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>483</v>
+        <v>543</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>484</v>
+        <v>544</v>
       </c>
       <c r="J61" t="s">
-        <v>485</v>
+        <v>545</v>
       </c>
       <c r="K61" t="s">
-        <v>486</v>
+        <v>546</v>
       </c>
       <c r="L61" t="s">
-        <v>487</v>
+        <v>547</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>461</v>
+        <v>517</v>
       </c>
       <c r="O61" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -7181,56 +7772,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>480</v>
+        <v>539</v>
       </c>
       <c r="X61" t="s">
-        <v>481</v>
+        <v>540</v>
       </c>
       <c r="Y61" t="s">
-        <v>488</v>
+        <v>548</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>59287</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>58772</v>
+      </c>
+      <c r="C62" t="s">
+        <v>549</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>489</v>
+        <v>550</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>490</v>
+        <v>551</v>
       </c>
       <c r="J62" t="s">
-        <v>491</v>
+        <v>552</v>
       </c>
       <c r="K62" t="s">
-        <v>492</v>
+        <v>553</v>
       </c>
       <c r="L62" t="s">
-        <v>493</v>
+        <v>554</v>
       </c>
       <c r="M62" t="n">
         <v>3</v>
       </c>
       <c r="N62" t="s">
-        <v>439</v>
+        <v>492</v>
       </c>
       <c r="O62" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P62" t="s"/>
       <c r="Q62" t="n">
@@ -7246,56 +7841,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>494</v>
+        <v>555</v>
       </c>
       <c r="X62" t="s">
-        <v>481</v>
+        <v>540</v>
       </c>
       <c r="Y62" t="s">
-        <v>495</v>
+        <v>556</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>59287</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>165042</v>
+      </c>
+      <c r="C63" t="s">
+        <v>557</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>496</v>
+        <v>558</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>497</v>
+        <v>559</v>
       </c>
       <c r="J63" t="s">
-        <v>498</v>
+        <v>560</v>
       </c>
       <c r="K63" t="s">
-        <v>499</v>
+        <v>561</v>
       </c>
       <c r="L63" t="s">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
       <c r="N63" t="s">
-        <v>439</v>
+        <v>492</v>
       </c>
       <c r="O63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P63" t="s"/>
       <c r="Q63" t="s"/>
@@ -7311,56 +7910,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>480</v>
+        <v>539</v>
       </c>
       <c r="X63" t="s">
-        <v>481</v>
+        <v>540</v>
       </c>
       <c r="Y63" t="s">
-        <v>501</v>
+        <v>563</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>59287</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>165043</v>
+      </c>
+      <c r="C64" t="s">
+        <v>564</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>502</v>
+        <v>565</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>503</v>
+        <v>566</v>
       </c>
       <c r="J64" t="s">
-        <v>498</v>
+        <v>560</v>
       </c>
       <c r="K64" t="s">
-        <v>504</v>
+        <v>567</v>
       </c>
       <c r="L64" t="s">
-        <v>505</v>
+        <v>568</v>
       </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
       <c r="N64" t="s">
-        <v>506</v>
+        <v>569</v>
       </c>
       <c r="O64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P64" t="s"/>
       <c r="Q64" t="s"/>
@@ -7378,50 +7981,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>507</v>
+        <v>570</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>59287</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>13914</v>
+      </c>
+      <c r="C65" t="s">
+        <v>571</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>508</v>
+        <v>572</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>509</v>
+        <v>573</v>
       </c>
       <c r="J65" t="s">
-        <v>510</v>
+        <v>574</v>
       </c>
       <c r="K65" t="s">
-        <v>511</v>
+        <v>575</v>
       </c>
       <c r="L65" t="s">
-        <v>512</v>
+        <v>576</v>
       </c>
       <c r="M65" t="n">
         <v>4</v>
       </c>
       <c r="N65" t="s">
-        <v>506</v>
+        <v>569</v>
       </c>
       <c r="O65" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P65" t="s"/>
       <c r="Q65" t="s"/>
@@ -7437,56 +8044,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>513</v>
+        <v>577</v>
       </c>
       <c r="X65" t="s">
-        <v>514</v>
+        <v>578</v>
       </c>
       <c r="Y65" t="s">
-        <v>515</v>
+        <v>579</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>59287</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>165044</v>
+      </c>
+      <c r="C66" t="s">
+        <v>580</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>516</v>
+        <v>581</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>517</v>
+        <v>582</v>
       </c>
       <c r="J66" t="s">
-        <v>518</v>
+        <v>583</v>
       </c>
       <c r="K66" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="L66" t="s">
-        <v>519</v>
+        <v>584</v>
       </c>
       <c r="M66" t="n">
         <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>506</v>
+        <v>569</v>
       </c>
       <c r="O66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P66" t="s"/>
       <c r="Q66" t="s"/>
@@ -7498,56 +8109,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>513</v>
+        <v>577</v>
       </c>
       <c r="X66" t="s">
-        <v>514</v>
+        <v>578</v>
       </c>
       <c r="Y66" t="s">
-        <v>520</v>
+        <v>585</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>59287</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>165038</v>
+      </c>
+      <c r="C67" t="s">
+        <v>504</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>521</v>
+        <v>586</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>522</v>
+        <v>587</v>
       </c>
       <c r="J67" t="s">
-        <v>523</v>
+        <v>588</v>
       </c>
       <c r="K67" t="s">
-        <v>524</v>
+        <v>589</v>
       </c>
       <c r="L67" t="s">
-        <v>525</v>
+        <v>590</v>
       </c>
       <c r="M67" t="n">
         <v>4</v>
       </c>
       <c r="N67" t="s">
-        <v>526</v>
+        <v>591</v>
       </c>
       <c r="O67" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P67" t="n">
         <v>4</v>
@@ -7569,56 +8184,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>527</v>
+        <v>592</v>
       </c>
       <c r="X67" t="s">
-        <v>528</v>
+        <v>593</v>
       </c>
       <c r="Y67" t="s">
-        <v>529</v>
+        <v>594</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>59287</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>165045</v>
+      </c>
+      <c r="C68" t="s">
+        <v>595</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>530</v>
+        <v>596</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>531</v>
+        <v>597</v>
       </c>
       <c r="J68" t="s">
-        <v>532</v>
+        <v>598</v>
       </c>
       <c r="K68" t="s">
-        <v>533</v>
+        <v>599</v>
       </c>
       <c r="L68" t="s">
-        <v>534</v>
+        <v>600</v>
       </c>
       <c r="M68" t="n">
         <v>4</v>
       </c>
       <c r="N68" t="s">
-        <v>526</v>
+        <v>591</v>
       </c>
       <c r="O68" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P68" t="n">
         <v>5</v>
@@ -7640,56 +8259,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>527</v>
+        <v>592</v>
       </c>
       <c r="X68" t="s">
-        <v>528</v>
+        <v>593</v>
       </c>
       <c r="Y68" t="s">
-        <v>535</v>
+        <v>601</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>59287</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>48664</v>
+      </c>
+      <c r="C69" t="s">
+        <v>602</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>536</v>
+        <v>603</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>537</v>
+        <v>604</v>
       </c>
       <c r="J69" t="s">
-        <v>538</v>
+        <v>605</v>
       </c>
       <c r="K69" t="s">
-        <v>539</v>
+        <v>606</v>
       </c>
       <c r="L69" t="s">
-        <v>540</v>
+        <v>607</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>541</v>
+        <v>608</v>
       </c>
       <c r="O69" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -7711,56 +8334,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>542</v>
+        <v>609</v>
       </c>
       <c r="X69" t="s">
-        <v>543</v>
+        <v>610</v>
       </c>
       <c r="Y69" t="s">
-        <v>544</v>
+        <v>611</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>59287</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>17187</v>
+      </c>
+      <c r="C70" t="s">
+        <v>612</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>545</v>
+        <v>613</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>546</v>
+        <v>614</v>
       </c>
       <c r="J70" t="s">
-        <v>547</v>
+        <v>615</v>
       </c>
       <c r="K70" t="s">
-        <v>548</v>
+        <v>616</v>
       </c>
       <c r="L70" t="s">
-        <v>549</v>
+        <v>617</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>550</v>
+        <v>618</v>
       </c>
       <c r="O70" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -7782,56 +8409,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>542</v>
+        <v>609</v>
       </c>
       <c r="X70" t="s">
-        <v>543</v>
+        <v>610</v>
       </c>
       <c r="Y70" t="s">
-        <v>551</v>
+        <v>619</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>59287</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>165046</v>
+      </c>
+      <c r="C71" t="s">
+        <v>620</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>552</v>
+        <v>621</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>553</v>
+        <v>622</v>
       </c>
       <c r="J71" t="s">
-        <v>554</v>
+        <v>623</v>
       </c>
       <c r="K71" t="s">
-        <v>555</v>
+        <v>624</v>
       </c>
       <c r="L71" t="s">
-        <v>556</v>
+        <v>625</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>550</v>
+        <v>618</v>
       </c>
       <c r="O71" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P71" t="n">
         <v>5</v>
@@ -7853,56 +8484,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>557</v>
+        <v>626</v>
       </c>
       <c r="X71" t="s">
-        <v>558</v>
+        <v>627</v>
       </c>
       <c r="Y71" t="s">
-        <v>559</v>
+        <v>628</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>59287</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>14804</v>
+      </c>
+      <c r="C72" t="s">
+        <v>629</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>560</v>
+        <v>630</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>561</v>
+        <v>631</v>
       </c>
       <c r="J72" t="s">
-        <v>562</v>
+        <v>632</v>
       </c>
       <c r="K72" t="s">
-        <v>563</v>
+        <v>633</v>
       </c>
       <c r="L72" t="s">
-        <v>564</v>
+        <v>634</v>
       </c>
       <c r="M72" t="n">
         <v>2</v>
       </c>
       <c r="N72" t="s">
-        <v>550</v>
+        <v>618</v>
       </c>
       <c r="O72" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P72" t="s"/>
       <c r="Q72" t="s"/>
@@ -7916,56 +8551,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>557</v>
+        <v>626</v>
       </c>
       <c r="X72" t="s">
-        <v>558</v>
+        <v>627</v>
       </c>
       <c r="Y72" t="s">
-        <v>565</v>
+        <v>635</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>59287</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>450</v>
+      </c>
+      <c r="C73" t="s">
+        <v>636</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>566</v>
+        <v>637</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>567</v>
+        <v>638</v>
       </c>
       <c r="J73" t="s">
-        <v>568</v>
+        <v>639</v>
       </c>
       <c r="K73" t="s">
-        <v>569</v>
+        <v>640</v>
       </c>
       <c r="L73" t="s">
-        <v>570</v>
+        <v>641</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>571</v>
+        <v>642</v>
       </c>
       <c r="O73" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="P73" t="s"/>
       <c r="Q73" t="s"/>
@@ -7977,56 +8616,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>572</v>
+        <v>643</v>
       </c>
       <c r="X73" t="s">
-        <v>573</v>
+        <v>644</v>
       </c>
       <c r="Y73" t="s">
-        <v>574</v>
+        <v>645</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>59287</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>165047</v>
+      </c>
+      <c r="C74" t="s">
+        <v>646</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>575</v>
+        <v>647</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>576</v>
+        <v>648</v>
       </c>
       <c r="J74" t="s">
-        <v>577</v>
+        <v>649</v>
       </c>
       <c r="K74" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="L74" t="s">
-        <v>578</v>
+        <v>650</v>
       </c>
       <c r="M74" t="n">
         <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>571</v>
+        <v>642</v>
       </c>
       <c r="O74" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P74" t="n">
         <v>5</v>
@@ -8048,56 +8691,60 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>579</v>
+        <v>651</v>
       </c>
       <c r="X74" t="s">
-        <v>580</v>
+        <v>652</v>
       </c>
       <c r="Y74" t="s">
-        <v>581</v>
+        <v>653</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>59287</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>1750</v>
+      </c>
+      <c r="C75" t="s">
+        <v>654</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>582</v>
+        <v>655</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>583</v>
+        <v>656</v>
       </c>
       <c r="J75" t="s">
-        <v>584</v>
+        <v>657</v>
       </c>
       <c r="K75" t="s">
-        <v>585</v>
+        <v>658</v>
       </c>
       <c r="L75" t="s">
-        <v>586</v>
+        <v>659</v>
       </c>
       <c r="M75" t="n">
         <v>4</v>
       </c>
       <c r="N75" t="s">
-        <v>571</v>
+        <v>642</v>
       </c>
       <c r="O75" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P75" t="n">
         <v>4</v>
@@ -8119,54 +8766,58 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>579</v>
+        <v>651</v>
       </c>
       <c r="X75" t="s">
-        <v>580</v>
+        <v>652</v>
       </c>
       <c r="Y75" t="s">
-        <v>587</v>
+        <v>660</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>59287</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>165048</v>
+      </c>
+      <c r="C76" t="s">
+        <v>661</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>588</v>
+        <v>662</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>589</v>
+        <v>663</v>
       </c>
       <c r="J76" t="s">
-        <v>590</v>
+        <v>664</v>
       </c>
       <c r="K76" t="s"/>
       <c r="L76" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="M76" t="n">
         <v>3</v>
       </c>
       <c r="N76" t="s">
-        <v>591</v>
+        <v>665</v>
       </c>
       <c r="O76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P76" t="n">
         <v>3</v>
@@ -8188,56 +8839,60 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>592</v>
+        <v>666</v>
       </c>
       <c r="X76" t="s">
-        <v>593</v>
+        <v>667</v>
       </c>
       <c r="Y76" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>59287</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>16806</v>
+      </c>
+      <c r="C77" t="s">
+        <v>668</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>594</v>
+        <v>669</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>595</v>
+        <v>670</v>
       </c>
       <c r="J77" t="s">
-        <v>596</v>
+        <v>671</v>
       </c>
       <c r="K77" t="s">
-        <v>597</v>
+        <v>672</v>
       </c>
       <c r="L77" t="s">
-        <v>598</v>
+        <v>673</v>
       </c>
       <c r="M77" t="n">
         <v>3</v>
       </c>
       <c r="N77" t="s">
-        <v>599</v>
+        <v>674</v>
       </c>
       <c r="O77" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="P77" t="n">
         <v>4</v>
@@ -8255,56 +8910,60 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>600</v>
+        <v>675</v>
       </c>
       <c r="X77" t="s">
-        <v>601</v>
+        <v>676</v>
       </c>
       <c r="Y77" t="s">
-        <v>602</v>
+        <v>677</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>59287</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>164203</v>
+      </c>
+      <c r="C78" t="s">
+        <v>678</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>603</v>
+        <v>679</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>604</v>
+        <v>680</v>
       </c>
       <c r="J78" t="s">
-        <v>605</v>
+        <v>681</v>
       </c>
       <c r="K78" t="s">
-        <v>606</v>
+        <v>682</v>
       </c>
       <c r="L78" t="s">
-        <v>607</v>
+        <v>683</v>
       </c>
       <c r="M78" t="n">
         <v>2</v>
       </c>
       <c r="N78" t="s">
-        <v>599</v>
+        <v>674</v>
       </c>
       <c r="O78" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P78" t="n">
         <v>3</v>
@@ -8326,47 +8985,51 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>600</v>
+        <v>675</v>
       </c>
       <c r="X78" t="s">
-        <v>601</v>
+        <v>676</v>
       </c>
       <c r="Y78" t="s">
-        <v>608</v>
+        <v>684</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>59287</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>70533</v>
+      </c>
+      <c r="C79" t="s">
+        <v>685</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>609</v>
+        <v>686</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>610</v>
+        <v>687</v>
       </c>
       <c r="J79" t="s">
-        <v>611</v>
+        <v>688</v>
       </c>
       <c r="K79" t="s">
-        <v>612</v>
+        <v>689</v>
       </c>
       <c r="L79" t="s">
-        <v>613</v>
+        <v>690</v>
       </c>
       <c r="M79" t="n">
         <v>4</v>
@@ -8395,50 +9058,54 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>614</v>
+        <v>691</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>59287</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>165049</v>
+      </c>
+      <c r="C80" t="s">
+        <v>692</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>615</v>
+        <v>693</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>616</v>
+        <v>694</v>
       </c>
       <c r="J80" t="s">
-        <v>617</v>
+        <v>695</v>
       </c>
       <c r="K80" t="s">
-        <v>618</v>
+        <v>696</v>
       </c>
       <c r="L80" t="s">
-        <v>619</v>
+        <v>697</v>
       </c>
       <c r="M80" t="n">
         <v>5</v>
       </c>
       <c r="N80" t="s">
-        <v>620</v>
+        <v>698</v>
       </c>
       <c r="O80" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="P80" t="n">
         <v>5</v>
@@ -8462,50 +9129,54 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>619</v>
+        <v>697</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>59287</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>165050</v>
+      </c>
+      <c r="C81" t="s">
+        <v>699</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>621</v>
+        <v>700</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>622</v>
+        <v>701</v>
       </c>
       <c r="J81" t="s">
-        <v>617</v>
+        <v>695</v>
       </c>
       <c r="K81" t="s">
-        <v>623</v>
+        <v>702</v>
       </c>
       <c r="L81" t="s">
-        <v>624</v>
+        <v>703</v>
       </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
       <c r="N81" t="s">
-        <v>620</v>
+        <v>698</v>
       </c>
       <c r="O81" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P81" t="n">
         <v>3</v>
@@ -8529,50 +9200,54 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>624</v>
+        <v>703</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>59287</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>165051</v>
+      </c>
+      <c r="C82" t="s">
+        <v>704</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>625</v>
+        <v>705</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>626</v>
+        <v>706</v>
       </c>
       <c r="J82" t="s">
-        <v>627</v>
+        <v>707</v>
       </c>
       <c r="K82" t="s">
-        <v>628</v>
+        <v>708</v>
       </c>
       <c r="L82" t="s">
-        <v>629</v>
+        <v>709</v>
       </c>
       <c r="M82" t="n">
         <v>5</v>
       </c>
       <c r="N82" t="s">
-        <v>620</v>
+        <v>698</v>
       </c>
       <c r="O82" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P82" t="n">
         <v>4</v>
@@ -8596,50 +9271,54 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>629</v>
+        <v>709</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>59287</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>6736</v>
+      </c>
+      <c r="C83" t="s">
+        <v>710</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>630</v>
+        <v>711</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>631</v>
+        <v>712</v>
       </c>
       <c r="J83" t="s">
-        <v>632</v>
+        <v>713</v>
       </c>
       <c r="K83" t="s">
-        <v>633</v>
+        <v>714</v>
       </c>
       <c r="L83" t="s">
-        <v>634</v>
+        <v>715</v>
       </c>
       <c r="M83" t="n">
         <v>4</v>
       </c>
       <c r="N83" t="s">
-        <v>635</v>
+        <v>716</v>
       </c>
       <c r="O83" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P83" t="n">
         <v>5</v>
@@ -8663,50 +9342,54 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>634</v>
+        <v>715</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>59287</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>14727</v>
+      </c>
+      <c r="C84" t="s">
+        <v>717</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>636</v>
+        <v>718</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>637</v>
+        <v>719</v>
       </c>
       <c r="J84" t="s">
-        <v>632</v>
+        <v>713</v>
       </c>
       <c r="K84" t="s">
-        <v>638</v>
+        <v>720</v>
       </c>
       <c r="L84" t="s">
-        <v>639</v>
+        <v>721</v>
       </c>
       <c r="M84" t="n">
         <v>2</v>
       </c>
       <c r="N84" t="s">
-        <v>635</v>
+        <v>716</v>
       </c>
       <c r="O84" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="P84" t="n">
         <v>3</v>
@@ -8730,50 +9413,54 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>640</v>
+        <v>722</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>59287</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>165052</v>
+      </c>
+      <c r="C85" t="s">
+        <v>723</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>641</v>
+        <v>724</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>642</v>
+        <v>725</v>
       </c>
       <c r="J85" t="s">
-        <v>643</v>
+        <v>726</v>
       </c>
       <c r="K85" t="s">
-        <v>644</v>
+        <v>727</v>
       </c>
       <c r="L85" t="s">
-        <v>645</v>
+        <v>728</v>
       </c>
       <c r="M85" t="n">
         <v>5</v>
       </c>
       <c r="N85" t="s">
-        <v>635</v>
+        <v>716</v>
       </c>
       <c r="O85" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P85" t="n">
         <v>5</v>
@@ -8797,50 +9484,54 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>646</v>
+        <v>729</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>59287</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>23380</v>
+      </c>
+      <c r="C86" t="s">
+        <v>730</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>647</v>
+        <v>731</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>648</v>
+        <v>732</v>
       </c>
       <c r="J86" t="s">
-        <v>649</v>
+        <v>733</v>
       </c>
       <c r="K86" t="s">
-        <v>650</v>
+        <v>734</v>
       </c>
       <c r="L86" t="s">
-        <v>651</v>
+        <v>735</v>
       </c>
       <c r="M86" t="n">
         <v>3</v>
       </c>
       <c r="N86" t="s">
-        <v>635</v>
+        <v>716</v>
       </c>
       <c r="O86" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P86" t="n">
         <v>3</v>
@@ -8864,50 +9555,54 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>652</v>
+        <v>736</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>59287</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>65872</v>
+      </c>
+      <c r="C87" t="s">
+        <v>737</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>653</v>
+        <v>738</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>654</v>
+        <v>739</v>
       </c>
       <c r="J87" t="s">
-        <v>655</v>
+        <v>740</v>
       </c>
       <c r="K87" t="s">
-        <v>656</v>
+        <v>741</v>
       </c>
       <c r="L87" t="s">
-        <v>657</v>
+        <v>742</v>
       </c>
       <c r="M87" t="n">
         <v>5</v>
       </c>
       <c r="N87" t="s">
-        <v>635</v>
+        <v>716</v>
       </c>
       <c r="O87" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P87" t="n">
         <v>5</v>
@@ -8931,50 +9626,54 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>657</v>
+        <v>742</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>59287</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>28171</v>
+      </c>
+      <c r="C88" t="s">
+        <v>743</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>658</v>
+        <v>744</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>659</v>
+        <v>745</v>
       </c>
       <c r="J88" t="s">
-        <v>660</v>
+        <v>746</v>
       </c>
       <c r="K88" t="s">
-        <v>661</v>
+        <v>747</v>
       </c>
       <c r="L88" t="s">
-        <v>662</v>
+        <v>748</v>
       </c>
       <c r="M88" t="n">
         <v>5</v>
       </c>
       <c r="N88" t="s">
-        <v>663</v>
+        <v>749</v>
       </c>
       <c r="O88" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P88" t="n">
         <v>5</v>
@@ -8998,41 +9697,45 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>662</v>
+        <v>748</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>59287</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>110613</v>
+      </c>
+      <c r="C89" t="s">
+        <v>750</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>664</v>
+        <v>751</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>665</v>
+        <v>752</v>
       </c>
       <c r="J89" t="s">
-        <v>666</v>
+        <v>753</v>
       </c>
       <c r="K89" t="s">
-        <v>667</v>
+        <v>754</v>
       </c>
       <c r="L89" t="s">
-        <v>668</v>
+        <v>755</v>
       </c>
       <c r="M89" t="n">
         <v>5</v>
@@ -9051,50 +9754,54 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>668</v>
+        <v>755</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>59287</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>8474</v>
+      </c>
+      <c r="C90" t="s">
+        <v>756</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>669</v>
+        <v>757</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>670</v>
+        <v>758</v>
       </c>
       <c r="J90" t="s">
-        <v>671</v>
+        <v>759</v>
       </c>
       <c r="K90" t="s">
-        <v>672</v>
+        <v>760</v>
       </c>
       <c r="L90" t="s">
-        <v>673</v>
+        <v>761</v>
       </c>
       <c r="M90" t="n">
         <v>5</v>
       </c>
       <c r="N90" t="s">
-        <v>663</v>
+        <v>749</v>
       </c>
       <c r="O90" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P90" t="n">
         <v>5</v>
@@ -9118,50 +9825,54 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>673</v>
+        <v>761</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>59287</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>7</v>
+      </c>
+      <c r="C91" t="s">
+        <v>762</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>674</v>
+        <v>763</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>675</v>
+        <v>764</v>
       </c>
       <c r="J91" t="s">
-        <v>676</v>
+        <v>765</v>
       </c>
       <c r="K91" t="s">
-        <v>677</v>
+        <v>766</v>
       </c>
       <c r="L91" t="s">
-        <v>678</v>
+        <v>767</v>
       </c>
       <c r="M91" t="n">
         <v>5</v>
       </c>
       <c r="N91" t="s">
-        <v>679</v>
+        <v>768</v>
       </c>
       <c r="O91" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="P91" t="n">
         <v>5</v>
@@ -9185,50 +9896,54 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>678</v>
+        <v>767</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>59287</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>60867</v>
+      </c>
+      <c r="C92" t="s">
+        <v>769</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>680</v>
+        <v>770</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>681</v>
+        <v>771</v>
       </c>
       <c r="J92" t="s">
-        <v>682</v>
+        <v>772</v>
       </c>
       <c r="K92" t="s">
-        <v>683</v>
+        <v>773</v>
       </c>
       <c r="L92" t="s">
-        <v>684</v>
+        <v>774</v>
       </c>
       <c r="M92" t="n">
         <v>4</v>
       </c>
       <c r="N92" t="s">
-        <v>679</v>
+        <v>768</v>
       </c>
       <c r="O92" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P92" t="n">
         <v>4</v>
@@ -9252,35 +9967,39 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>684</v>
+        <v>774</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>59287</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>165053</v>
+      </c>
+      <c r="C93" t="s">
+        <v>775</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>685</v>
+        <v>776</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>686</v>
+        <v>777</v>
       </c>
       <c r="J93" t="s">
-        <v>687</v>
+        <v>778</v>
       </c>
       <c r="K93" t="s"/>
       <c r="L93" t="s"/>
@@ -9288,10 +10007,10 @@
         <v>5</v>
       </c>
       <c r="N93" t="s">
-        <v>688</v>
+        <v>779</v>
       </c>
       <c r="O93" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="P93" t="n">
         <v>5</v>
@@ -9312,51 +10031,52 @@
       <c r="V93" t="n">
         <v>0</v>
       </c>
-      <c r="W93" t="s"/>
-      <c r="X93" t="s"/>
-      <c r="Y93" t="s"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>59287</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>165054</v>
+      </c>
+      <c r="C94" t="s">
+        <v>780</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>689</v>
+        <v>781</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>690</v>
+        <v>782</v>
       </c>
       <c r="J94" t="s">
-        <v>691</v>
+        <v>783</v>
       </c>
       <c r="K94" t="s">
-        <v>692</v>
+        <v>784</v>
       </c>
       <c r="L94" t="s">
-        <v>693</v>
+        <v>785</v>
       </c>
       <c r="M94" t="n">
         <v>5</v>
       </c>
       <c r="N94" t="s">
-        <v>694</v>
+        <v>786</v>
       </c>
       <c r="O94" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P94" t="n">
         <v>5</v>
@@ -9380,35 +10100,39 @@
       <c r="W94" t="s"/>
       <c r="X94" t="s"/>
       <c r="Y94" t="s">
-        <v>695</v>
+        <v>787</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>59287</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>70551</v>
+      </c>
+      <c r="C95" t="s">
+        <v>788</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>696</v>
+        <v>789</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>697</v>
+        <v>790</v>
       </c>
       <c r="J95" t="s">
-        <v>698</v>
+        <v>791</v>
       </c>
       <c r="K95" t="s"/>
       <c r="L95" t="s"/>
@@ -9416,10 +10140,10 @@
         <v>4</v>
       </c>
       <c r="N95" t="s">
-        <v>694</v>
+        <v>786</v>
       </c>
       <c r="O95" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P95" t="n">
         <v>4</v>
@@ -9440,51 +10164,52 @@
       <c r="V95" t="n">
         <v>0</v>
       </c>
-      <c r="W95" t="s"/>
-      <c r="X95" t="s"/>
-      <c r="Y95" t="s"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>59287</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>7</v>
+      </c>
+      <c r="C96" t="s">
+        <v>762</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>699</v>
+        <v>792</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>700</v>
+        <v>793</v>
       </c>
       <c r="J96" t="s">
-        <v>701</v>
+        <v>794</v>
       </c>
       <c r="K96" t="s">
-        <v>702</v>
+        <v>795</v>
       </c>
       <c r="L96" t="s">
-        <v>703</v>
+        <v>796</v>
       </c>
       <c r="M96" t="n">
         <v>5</v>
       </c>
       <c r="N96" t="s">
-        <v>694</v>
+        <v>786</v>
       </c>
       <c r="O96" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P96" t="n">
         <v>5</v>
@@ -9508,50 +10233,54 @@
       <c r="W96" t="s"/>
       <c r="X96" t="s"/>
       <c r="Y96" t="s">
-        <v>703</v>
+        <v>796</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>59287</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>165055</v>
+      </c>
+      <c r="C97" t="s">
+        <v>797</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>704</v>
+        <v>798</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>705</v>
+        <v>799</v>
       </c>
       <c r="J97" t="s">
-        <v>706</v>
+        <v>800</v>
       </c>
       <c r="K97" t="s">
-        <v>707</v>
+        <v>801</v>
       </c>
       <c r="L97" t="s">
-        <v>708</v>
+        <v>802</v>
       </c>
       <c r="M97" t="n">
         <v>4</v>
       </c>
       <c r="N97" t="s">
-        <v>694</v>
+        <v>786</v>
       </c>
       <c r="O97" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P97" t="s"/>
       <c r="Q97" t="s"/>
@@ -9565,35 +10294,39 @@
       <c r="W97" t="s"/>
       <c r="X97" t="s"/>
       <c r="Y97" t="s">
-        <v>709</v>
+        <v>803</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>59287</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>70551</v>
+      </c>
+      <c r="C98" t="s">
+        <v>788</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>710</v>
+        <v>804</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>711</v>
+        <v>805</v>
       </c>
       <c r="J98" t="s">
-        <v>712</v>
+        <v>806</v>
       </c>
       <c r="K98" t="s"/>
       <c r="L98" t="s"/>
@@ -9601,10 +10334,10 @@
         <v>4</v>
       </c>
       <c r="N98" t="s">
-        <v>713</v>
+        <v>807</v>
       </c>
       <c r="O98" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P98" t="n">
         <v>4</v>
@@ -9625,51 +10358,52 @@
       <c r="V98" t="n">
         <v>0</v>
       </c>
-      <c r="W98" t="s"/>
-      <c r="X98" t="s"/>
-      <c r="Y98" t="s"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>59287</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>3147</v>
+      </c>
+      <c r="C99" t="s">
+        <v>808</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>714</v>
+        <v>809</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>715</v>
+        <v>810</v>
       </c>
       <c r="J99" t="s">
-        <v>716</v>
+        <v>811</v>
       </c>
       <c r="K99" t="s">
-        <v>717</v>
+        <v>812</v>
       </c>
       <c r="L99" t="s">
-        <v>718</v>
+        <v>813</v>
       </c>
       <c r="M99" t="n">
         <v>5</v>
       </c>
       <c r="N99" t="s">
-        <v>719</v>
+        <v>814</v>
       </c>
       <c r="O99" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P99" t="n">
         <v>5</v>
@@ -9693,50 +10427,54 @@
       <c r="W99" t="s"/>
       <c r="X99" t="s"/>
       <c r="Y99" t="s">
-        <v>718</v>
+        <v>813</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>59287</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>11421</v>
+      </c>
+      <c r="C100" t="s">
+        <v>815</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>720</v>
+        <v>816</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>721</v>
+        <v>817</v>
       </c>
       <c r="J100" t="s">
-        <v>722</v>
+        <v>818</v>
       </c>
       <c r="K100" t="s">
-        <v>723</v>
+        <v>819</v>
       </c>
       <c r="L100" t="s">
-        <v>724</v>
+        <v>820</v>
       </c>
       <c r="M100" t="n">
         <v>2</v>
       </c>
       <c r="N100" t="s">
-        <v>725</v>
+        <v>821</v>
       </c>
       <c r="O100" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="P100" t="s"/>
       <c r="Q100" t="s"/>
@@ -9750,41 +10488,45 @@
       <c r="W100" t="s"/>
       <c r="X100" t="s"/>
       <c r="Y100" t="s">
-        <v>724</v>
+        <v>820</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>59287</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>165056</v>
+      </c>
+      <c r="C101" t="s">
+        <v>822</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>726</v>
+        <v>823</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>727</v>
+        <v>824</v>
       </c>
       <c r="J101" t="s">
-        <v>728</v>
+        <v>825</v>
       </c>
       <c r="K101" t="s">
-        <v>729</v>
+        <v>826</v>
       </c>
       <c r="L101" t="s">
-        <v>730</v>
+        <v>827</v>
       </c>
       <c r="M101" t="n">
         <v>3</v>
@@ -9813,41 +10555,45 @@
       <c r="W101" t="s"/>
       <c r="X101" t="s"/>
       <c r="Y101" t="s">
-        <v>731</v>
+        <v>828</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>59287</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>165057</v>
+      </c>
+      <c r="C102" t="s">
+        <v>829</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>732</v>
+        <v>830</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>733</v>
+        <v>831</v>
       </c>
       <c r="J102" t="s">
-        <v>734</v>
+        <v>832</v>
       </c>
       <c r="K102" t="s">
-        <v>735</v>
+        <v>833</v>
       </c>
       <c r="L102" t="s">
-        <v>736</v>
+        <v>834</v>
       </c>
       <c r="M102" t="n">
         <v>5</v>
@@ -9876,50 +10622,54 @@
       <c r="W102" t="s"/>
       <c r="X102" t="s"/>
       <c r="Y102" t="s">
-        <v>736</v>
+        <v>834</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>59287</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>11667</v>
+      </c>
+      <c r="C103" t="s">
+        <v>835</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>737</v>
+        <v>836</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I103" t="s">
-        <v>738</v>
+        <v>837</v>
       </c>
       <c r="J103" t="s">
-        <v>734</v>
+        <v>832</v>
       </c>
       <c r="K103" t="s">
-        <v>739</v>
+        <v>838</v>
       </c>
       <c r="L103" t="s">
-        <v>740</v>
+        <v>839</v>
       </c>
       <c r="M103" t="n">
         <v>5</v>
       </c>
       <c r="N103" t="s">
-        <v>741</v>
+        <v>840</v>
       </c>
       <c r="O103" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P103" t="n">
         <v>5</v>
@@ -9943,41 +10693,45 @@
       <c r="W103" t="s"/>
       <c r="X103" t="s"/>
       <c r="Y103" t="s">
-        <v>740</v>
+        <v>839</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>59287</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>165058</v>
+      </c>
+      <c r="C104" t="s">
+        <v>841</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F104" t="s">
-        <v>742</v>
+        <v>842</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I104" t="s">
-        <v>743</v>
+        <v>843</v>
       </c>
       <c r="J104" t="s">
-        <v>734</v>
+        <v>832</v>
       </c>
       <c r="K104" t="s">
-        <v>744</v>
+        <v>844</v>
       </c>
       <c r="L104" t="s">
-        <v>745</v>
+        <v>845</v>
       </c>
       <c r="M104" t="n">
         <v>5</v>
@@ -10006,50 +10760,54 @@
       <c r="W104" t="s"/>
       <c r="X104" t="s"/>
       <c r="Y104" t="s">
-        <v>745</v>
+        <v>845</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>59287</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>165059</v>
+      </c>
+      <c r="C105" t="s">
+        <v>846</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>746</v>
+        <v>847</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I105" t="s">
-        <v>747</v>
+        <v>848</v>
       </c>
       <c r="J105" t="s">
-        <v>734</v>
+        <v>832</v>
       </c>
       <c r="K105" t="s">
-        <v>748</v>
+        <v>849</v>
       </c>
       <c r="L105" t="s">
-        <v>749</v>
+        <v>850</v>
       </c>
       <c r="M105" t="n">
         <v>5</v>
       </c>
       <c r="N105" t="s">
-        <v>750</v>
+        <v>851</v>
       </c>
       <c r="O105" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P105" t="n">
         <v>5</v>
@@ -10073,50 +10831,54 @@
       <c r="W105" t="s"/>
       <c r="X105" t="s"/>
       <c r="Y105" t="s">
-        <v>749</v>
+        <v>850</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>59287</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>165060</v>
+      </c>
+      <c r="C106" t="s">
+        <v>852</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>751</v>
+        <v>853</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I106" t="s">
-        <v>752</v>
+        <v>854</v>
       </c>
       <c r="J106" t="s">
-        <v>753</v>
+        <v>855</v>
       </c>
       <c r="K106" t="s">
-        <v>754</v>
+        <v>856</v>
       </c>
       <c r="L106" t="s">
-        <v>755</v>
+        <v>857</v>
       </c>
       <c r="M106" t="n">
         <v>2</v>
       </c>
       <c r="N106" t="s">
-        <v>741</v>
+        <v>840</v>
       </c>
       <c r="O106" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P106" t="n">
         <v>2</v>
@@ -10140,41 +10902,45 @@
       <c r="W106" t="s"/>
       <c r="X106" t="s"/>
       <c r="Y106" t="s">
-        <v>756</v>
+        <v>858</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>59287</v>
       </c>
-      <c r="B107" t="s"/>
-      <c r="C107" t="s"/>
+      <c r="B107" t="n">
+        <v>165061</v>
+      </c>
+      <c r="C107" t="s">
+        <v>859</v>
+      </c>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
-        <v>757</v>
+        <v>860</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I107" t="s">
-        <v>758</v>
+        <v>861</v>
       </c>
       <c r="J107" t="s">
-        <v>753</v>
+        <v>855</v>
       </c>
       <c r="K107" t="s">
-        <v>759</v>
+        <v>862</v>
       </c>
       <c r="L107" t="s">
-        <v>760</v>
+        <v>863</v>
       </c>
       <c r="M107" t="n">
         <v>5</v>
@@ -10203,50 +10969,54 @@
       <c r="W107" t="s"/>
       <c r="X107" t="s"/>
       <c r="Y107" t="s">
-        <v>761</v>
+        <v>864</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>59287</v>
       </c>
-      <c r="B108" t="s"/>
-      <c r="C108" t="s"/>
+      <c r="B108" t="n">
+        <v>165062</v>
+      </c>
+      <c r="C108" t="s">
+        <v>865</v>
+      </c>
       <c r="D108" t="n">
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>762</v>
+        <v>866</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I108" t="s">
-        <v>763</v>
+        <v>867</v>
       </c>
       <c r="J108" t="s">
-        <v>753</v>
+        <v>855</v>
       </c>
       <c r="K108" t="s">
-        <v>764</v>
+        <v>868</v>
       </c>
       <c r="L108" t="s">
-        <v>765</v>
+        <v>869</v>
       </c>
       <c r="M108" t="n">
         <v>5</v>
       </c>
       <c r="N108" t="s">
-        <v>741</v>
+        <v>840</v>
       </c>
       <c r="O108" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P108" t="n">
         <v>5</v>
@@ -10270,50 +11040,54 @@
       <c r="W108" t="s"/>
       <c r="X108" t="s"/>
       <c r="Y108" t="s">
-        <v>765</v>
+        <v>869</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>59287</v>
       </c>
-      <c r="B109" t="s"/>
-      <c r="C109" t="s"/>
+      <c r="B109" t="n">
+        <v>165063</v>
+      </c>
+      <c r="C109" t="s">
+        <v>870</v>
+      </c>
       <c r="D109" t="n">
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F109" t="s">
-        <v>766</v>
+        <v>871</v>
       </c>
       <c r="G109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I109" t="s">
-        <v>767</v>
+        <v>872</v>
       </c>
       <c r="J109" t="s">
-        <v>753</v>
+        <v>855</v>
       </c>
       <c r="K109" t="s">
-        <v>768</v>
+        <v>873</v>
       </c>
       <c r="L109" t="s">
-        <v>769</v>
+        <v>874</v>
       </c>
       <c r="M109" t="n">
         <v>3</v>
       </c>
       <c r="N109" t="s">
-        <v>770</v>
+        <v>875</v>
       </c>
       <c r="O109" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P109" t="n">
         <v>3</v>
@@ -10337,50 +11111,54 @@
       <c r="W109" t="s"/>
       <c r="X109" t="s"/>
       <c r="Y109" t="s">
-        <v>769</v>
+        <v>874</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
         <v>59287</v>
       </c>
-      <c r="B110" t="s"/>
-      <c r="C110" t="s"/>
+      <c r="B110" t="n">
+        <v>165064</v>
+      </c>
+      <c r="C110" t="s">
+        <v>876</v>
+      </c>
       <c r="D110" t="n">
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F110" t="s">
-        <v>771</v>
+        <v>877</v>
       </c>
       <c r="G110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I110" t="s">
-        <v>772</v>
+        <v>878</v>
       </c>
       <c r="J110" t="s">
-        <v>753</v>
+        <v>855</v>
       </c>
       <c r="K110" t="s">
-        <v>773</v>
+        <v>879</v>
       </c>
       <c r="L110" t="s">
-        <v>774</v>
+        <v>880</v>
       </c>
       <c r="M110" t="n">
         <v>5</v>
       </c>
       <c r="N110" t="s">
-        <v>741</v>
+        <v>840</v>
       </c>
       <c r="O110" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P110" t="n">
         <v>5</v>
@@ -10404,35 +11182,39 @@
       <c r="W110" t="s"/>
       <c r="X110" t="s"/>
       <c r="Y110" t="s">
-        <v>774</v>
+        <v>880</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
         <v>59287</v>
       </c>
-      <c r="B111" t="s"/>
-      <c r="C111" t="s"/>
+      <c r="B111" t="n">
+        <v>70551</v>
+      </c>
+      <c r="C111" t="s">
+        <v>788</v>
+      </c>
       <c r="D111" t="n">
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F111" t="s">
-        <v>775</v>
+        <v>881</v>
       </c>
       <c r="G111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H111" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I111" t="s">
-        <v>776</v>
+        <v>882</v>
       </c>
       <c r="J111" t="s">
-        <v>777</v>
+        <v>883</v>
       </c>
       <c r="K111" t="s"/>
       <c r="L111" t="s"/>
@@ -10440,10 +11222,10 @@
         <v>5</v>
       </c>
       <c r="N111" t="s">
-        <v>778</v>
+        <v>884</v>
       </c>
       <c r="O111" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P111" t="n">
         <v>4</v>
@@ -10464,36 +11246,37 @@
       <c r="V111" t="n">
         <v>0</v>
       </c>
-      <c r="W111" t="s"/>
-      <c r="X111" t="s"/>
-      <c r="Y111" t="s"/>
     </row>
     <row r="112">
       <c r="A112" t="n">
         <v>59287</v>
       </c>
-      <c r="B112" t="s"/>
-      <c r="C112" t="s"/>
+      <c r="B112" t="n">
+        <v>165065</v>
+      </c>
+      <c r="C112" t="s">
+        <v>885</v>
+      </c>
       <c r="D112" t="n">
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F112" t="s">
-        <v>779</v>
+        <v>886</v>
       </c>
       <c r="G112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H112" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I112" t="s">
-        <v>780</v>
+        <v>887</v>
       </c>
       <c r="J112" t="s">
-        <v>781</v>
+        <v>888</v>
       </c>
       <c r="K112" t="s"/>
       <c r="L112" t="s"/>
@@ -10501,10 +11284,10 @@
         <v>5</v>
       </c>
       <c r="N112" t="s">
-        <v>770</v>
+        <v>875</v>
       </c>
       <c r="O112" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P112" t="n">
         <v>5</v>
@@ -10525,51 +11308,52 @@
       <c r="V112" t="n">
         <v>0</v>
       </c>
-      <c r="W112" t="s"/>
-      <c r="X112" t="s"/>
-      <c r="Y112" t="s"/>
     </row>
     <row r="113">
       <c r="A113" t="n">
         <v>59287</v>
       </c>
-      <c r="B113" t="s"/>
-      <c r="C113" t="s"/>
+      <c r="B113" t="n">
+        <v>44405</v>
+      </c>
+      <c r="C113" t="s">
+        <v>889</v>
+      </c>
       <c r="D113" t="n">
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F113" t="s">
-        <v>782</v>
+        <v>890</v>
       </c>
       <c r="G113" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H113" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I113" t="s">
-        <v>783</v>
+        <v>891</v>
       </c>
       <c r="J113" t="s">
-        <v>784</v>
+        <v>892</v>
       </c>
       <c r="K113" t="s">
-        <v>785</v>
+        <v>893</v>
       </c>
       <c r="L113" t="s">
-        <v>786</v>
+        <v>894</v>
       </c>
       <c r="M113" t="n">
         <v>3</v>
       </c>
       <c r="N113" t="s">
-        <v>770</v>
+        <v>875</v>
       </c>
       <c r="O113" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="P113" t="n">
         <v>3</v>
@@ -10593,50 +11377,54 @@
       <c r="W113" t="s"/>
       <c r="X113" t="s"/>
       <c r="Y113" t="s">
-        <v>787</v>
+        <v>895</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
         <v>59287</v>
       </c>
-      <c r="B114" t="s"/>
-      <c r="C114" t="s"/>
+      <c r="B114" t="n">
+        <v>163366</v>
+      </c>
+      <c r="C114" t="s">
+        <v>896</v>
+      </c>
       <c r="D114" t="n">
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F114" t="s">
-        <v>788</v>
+        <v>897</v>
       </c>
       <c r="G114" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H114" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I114" t="s">
-        <v>789</v>
+        <v>898</v>
       </c>
       <c r="J114" t="s">
-        <v>790</v>
+        <v>899</v>
       </c>
       <c r="K114" t="s">
-        <v>791</v>
+        <v>900</v>
       </c>
       <c r="L114" t="s">
-        <v>792</v>
+        <v>901</v>
       </c>
       <c r="M114" t="n">
         <v>3</v>
       </c>
       <c r="N114" t="s">
-        <v>770</v>
+        <v>875</v>
       </c>
       <c r="O114" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P114" t="n">
         <v>4</v>
@@ -10660,50 +11448,54 @@
       <c r="W114" t="s"/>
       <c r="X114" t="s"/>
       <c r="Y114" t="s">
-        <v>792</v>
+        <v>901</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
         <v>59287</v>
       </c>
-      <c r="B115" t="s"/>
-      <c r="C115" t="s"/>
+      <c r="B115" t="n">
+        <v>3959</v>
+      </c>
+      <c r="C115" t="s">
+        <v>902</v>
+      </c>
       <c r="D115" t="n">
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F115" t="s">
-        <v>793</v>
+        <v>903</v>
       </c>
       <c r="G115" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H115" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I115" t="s">
-        <v>794</v>
+        <v>904</v>
       </c>
       <c r="J115" t="s">
-        <v>795</v>
+        <v>905</v>
       </c>
       <c r="K115" t="s">
-        <v>796</v>
+        <v>906</v>
       </c>
       <c r="L115" t="s">
-        <v>797</v>
+        <v>907</v>
       </c>
       <c r="M115" t="n">
         <v>3</v>
       </c>
       <c r="N115" t="s">
-        <v>770</v>
+        <v>875</v>
       </c>
       <c r="O115" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P115" t="n">
         <v>2</v>
@@ -10727,35 +11519,39 @@
       <c r="W115" t="s"/>
       <c r="X115" t="s"/>
       <c r="Y115" t="s">
-        <v>797</v>
+        <v>907</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
         <v>59287</v>
       </c>
-      <c r="B116" t="s"/>
-      <c r="C116" t="s"/>
+      <c r="B116" t="n">
+        <v>165066</v>
+      </c>
+      <c r="C116" t="s">
+        <v>908</v>
+      </c>
       <c r="D116" t="n">
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F116" t="s">
-        <v>798</v>
+        <v>909</v>
       </c>
       <c r="G116" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H116" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I116" t="s">
-        <v>799</v>
+        <v>910</v>
       </c>
       <c r="J116" t="s">
-        <v>800</v>
+        <v>911</v>
       </c>
       <c r="K116" t="s"/>
       <c r="L116" t="s"/>
@@ -10763,10 +11559,10 @@
         <v>5</v>
       </c>
       <c r="N116" t="s">
-        <v>801</v>
+        <v>912</v>
       </c>
       <c r="O116" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P116" t="n">
         <v>4</v>
@@ -10787,51 +11583,52 @@
       <c r="V116" t="n">
         <v>0</v>
       </c>
-      <c r="W116" t="s"/>
-      <c r="X116" t="s"/>
-      <c r="Y116" t="s"/>
     </row>
     <row r="117">
       <c r="A117" t="n">
         <v>59287</v>
       </c>
-      <c r="B117" t="s"/>
-      <c r="C117" t="s"/>
+      <c r="B117" t="n">
+        <v>165067</v>
+      </c>
+      <c r="C117" t="s">
+        <v>913</v>
+      </c>
       <c r="D117" t="n">
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F117" t="s">
-        <v>802</v>
+        <v>914</v>
       </c>
       <c r="G117" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H117" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I117" t="s">
-        <v>803</v>
+        <v>915</v>
       </c>
       <c r="J117" t="s">
-        <v>804</v>
+        <v>916</v>
       </c>
       <c r="K117" t="s">
-        <v>805</v>
+        <v>917</v>
       </c>
       <c r="L117" t="s">
-        <v>806</v>
+        <v>918</v>
       </c>
       <c r="M117" t="n">
         <v>5</v>
       </c>
       <c r="N117" t="s">
-        <v>807</v>
+        <v>919</v>
       </c>
       <c r="O117" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P117" t="n">
         <v>5</v>
@@ -10855,50 +11652,54 @@
       <c r="W117" t="s"/>
       <c r="X117" t="s"/>
       <c r="Y117" t="s">
-        <v>806</v>
+        <v>918</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
         <v>59287</v>
       </c>
-      <c r="B118" t="s"/>
-      <c r="C118" t="s"/>
+      <c r="B118" t="n">
+        <v>165068</v>
+      </c>
+      <c r="C118" t="s">
+        <v>920</v>
+      </c>
       <c r="D118" t="n">
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F118" t="s">
-        <v>808</v>
+        <v>921</v>
       </c>
       <c r="G118" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H118" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I118" t="s">
-        <v>809</v>
+        <v>922</v>
       </c>
       <c r="J118" t="s">
-        <v>810</v>
+        <v>923</v>
       </c>
       <c r="K118" t="s">
-        <v>811</v>
+        <v>924</v>
       </c>
       <c r="L118" t="s">
-        <v>812</v>
+        <v>925</v>
       </c>
       <c r="M118" t="n">
         <v>4</v>
       </c>
       <c r="N118" t="s">
-        <v>813</v>
+        <v>926</v>
       </c>
       <c r="O118" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P118" t="n">
         <v>4</v>
@@ -10922,50 +11723,54 @@
       <c r="W118" t="s"/>
       <c r="X118" t="s"/>
       <c r="Y118" t="s">
-        <v>812</v>
+        <v>925</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
         <v>59287</v>
       </c>
-      <c r="B119" t="s"/>
-      <c r="C119" t="s"/>
+      <c r="B119" t="n">
+        <v>165069</v>
+      </c>
+      <c r="C119" t="s">
+        <v>927</v>
+      </c>
       <c r="D119" t="n">
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F119" t="s">
-        <v>814</v>
+        <v>928</v>
       </c>
       <c r="G119" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H119" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I119" t="s">
-        <v>815</v>
+        <v>929</v>
       </c>
       <c r="J119" t="s">
-        <v>816</v>
+        <v>930</v>
       </c>
       <c r="K119" t="s">
-        <v>817</v>
+        <v>931</v>
       </c>
       <c r="L119" t="s">
-        <v>818</v>
+        <v>932</v>
       </c>
       <c r="M119" t="n">
         <v>4</v>
       </c>
       <c r="N119" t="s">
-        <v>813</v>
+        <v>926</v>
       </c>
       <c r="O119" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P119" t="n">
         <v>4</v>
@@ -10989,50 +11794,54 @@
       <c r="W119" t="s"/>
       <c r="X119" t="s"/>
       <c r="Y119" t="s">
-        <v>819</v>
+        <v>933</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
         <v>59287</v>
       </c>
-      <c r="B120" t="s"/>
-      <c r="C120" t="s"/>
+      <c r="B120" t="n">
+        <v>165070</v>
+      </c>
+      <c r="C120" t="s">
+        <v>934</v>
+      </c>
       <c r="D120" t="n">
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F120" t="s">
-        <v>820</v>
+        <v>935</v>
       </c>
       <c r="G120" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H120" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I120" t="s">
-        <v>821</v>
+        <v>936</v>
       </c>
       <c r="J120" t="s">
-        <v>822</v>
+        <v>937</v>
       </c>
       <c r="K120" t="s">
-        <v>823</v>
+        <v>938</v>
       </c>
       <c r="L120" t="s">
-        <v>824</v>
+        <v>939</v>
       </c>
       <c r="M120" t="n">
         <v>5</v>
       </c>
       <c r="N120" t="s">
-        <v>825</v>
+        <v>940</v>
       </c>
       <c r="O120" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="P120" t="n">
         <v>5</v>
@@ -11056,50 +11865,54 @@
       <c r="W120" t="s"/>
       <c r="X120" t="s"/>
       <c r="Y120" t="s">
-        <v>824</v>
+        <v>939</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
         <v>59287</v>
       </c>
-      <c r="B121" t="s"/>
-      <c r="C121" t="s"/>
+      <c r="B121" t="n">
+        <v>165071</v>
+      </c>
+      <c r="C121" t="s">
+        <v>941</v>
+      </c>
       <c r="D121" t="n">
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F121" t="s">
-        <v>826</v>
+        <v>942</v>
       </c>
       <c r="G121" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H121" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I121" t="s">
-        <v>827</v>
+        <v>943</v>
       </c>
       <c r="J121" t="s">
-        <v>828</v>
+        <v>944</v>
       </c>
       <c r="K121" t="s">
-        <v>829</v>
+        <v>945</v>
       </c>
       <c r="L121" t="s">
-        <v>830</v>
+        <v>946</v>
       </c>
       <c r="M121" t="n">
         <v>5</v>
       </c>
       <c r="N121" t="s">
-        <v>831</v>
+        <v>947</v>
       </c>
       <c r="O121" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P121" t="n">
         <v>5</v>
@@ -11123,50 +11936,54 @@
       <c r="W121" t="s"/>
       <c r="X121" t="s"/>
       <c r="Y121" t="s">
-        <v>830</v>
+        <v>946</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
         <v>59287</v>
       </c>
-      <c r="B122" t="s"/>
-      <c r="C122" t="s"/>
+      <c r="B122" t="n">
+        <v>165072</v>
+      </c>
+      <c r="C122" t="s">
+        <v>948</v>
+      </c>
       <c r="D122" t="n">
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F122" t="s">
-        <v>832</v>
+        <v>949</v>
       </c>
       <c r="G122" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H122" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I122" t="s">
-        <v>833</v>
+        <v>950</v>
       </c>
       <c r="J122" t="s">
-        <v>834</v>
+        <v>951</v>
       </c>
       <c r="K122" t="s">
-        <v>835</v>
+        <v>952</v>
       </c>
       <c r="L122" t="s">
-        <v>836</v>
+        <v>953</v>
       </c>
       <c r="M122" t="n">
         <v>5</v>
       </c>
       <c r="N122" t="s">
-        <v>837</v>
+        <v>954</v>
       </c>
       <c r="O122" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P122" t="n">
         <v>5</v>
@@ -11190,50 +12007,54 @@
       <c r="W122" t="s"/>
       <c r="X122" t="s"/>
       <c r="Y122" t="s">
-        <v>838</v>
+        <v>955</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
         <v>59287</v>
       </c>
-      <c r="B123" t="s"/>
-      <c r="C123" t="s"/>
+      <c r="B123" t="n">
+        <v>165055</v>
+      </c>
+      <c r="C123" t="s">
+        <v>822</v>
+      </c>
       <c r="D123" t="n">
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F123" t="s">
-        <v>839</v>
+        <v>956</v>
       </c>
       <c r="G123" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H123" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I123" t="s">
-        <v>840</v>
+        <v>957</v>
       </c>
       <c r="J123" t="s">
-        <v>841</v>
+        <v>958</v>
       </c>
       <c r="K123" t="s">
-        <v>842</v>
+        <v>959</v>
       </c>
       <c r="L123" t="s">
-        <v>843</v>
+        <v>960</v>
       </c>
       <c r="M123" t="n">
         <v>5</v>
       </c>
       <c r="N123" t="s">
-        <v>844</v>
+        <v>961</v>
       </c>
       <c r="O123" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P123" t="n">
         <v>5</v>
@@ -11257,7 +12078,7 @@
       <c r="W123" t="s"/>
       <c r="X123" t="s"/>
       <c r="Y123" t="s">
-        <v>845</v>
+        <v>962</v>
       </c>
     </row>
   </sheetData>
